--- a/BigBasket/Bigbasket_products.xlsx
+++ b/BigBasket/Bigbasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="565">
   <si>
     <t>product_name</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Onion</t>
   </si>
   <si>
+    <t>Onion (Loose)</t>
+  </si>
+  <si>
     <t>Potato (Loose)</t>
   </si>
   <si>
@@ -326,1213 +329,1252 @@
     <t>₹585</t>
   </si>
   <si>
+    <t>₹191</t>
+  </si>
+  <si>
+    <t>₹206</t>
+  </si>
+  <si>
+    <t>₹27</t>
+  </si>
+  <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹28</t>
+  </si>
+  <si>
+    <t>₹38</t>
+  </si>
+  <si>
+    <t>₹105</t>
+  </si>
+  <si>
+    <t>₹48.63</t>
+  </si>
+  <si>
+    <t>₹48</t>
+  </si>
+  <si>
+    <t>₹25</t>
+  </si>
+  <si>
+    <t>₹36</t>
+  </si>
+  <si>
+    <t>₹82</t>
+  </si>
+  <si>
+    <t>₹136</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹22.24</t>
+  </si>
+  <si>
+    <t>₹29</t>
+  </si>
+  <si>
+    <t>₹47</t>
+  </si>
+  <si>
+    <t>₹31</t>
+  </si>
+  <si>
+    <t>₹133</t>
+  </si>
+  <si>
+    <t>₹56.85</t>
+  </si>
+  <si>
+    <t>₹166</t>
+  </si>
+  <si>
+    <t>₹221</t>
+  </si>
+  <si>
+    <t>₹75.34</t>
+  </si>
+  <si>
+    <t>₹51</t>
+  </si>
+  <si>
+    <t>₹162</t>
+  </si>
+  <si>
+    <t>₹143</t>
+  </si>
+  <si>
+    <t>₹102</t>
+  </si>
+  <si>
+    <t>₹40</t>
+  </si>
+  <si>
+    <t>₹188</t>
+  </si>
+  <si>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹37</t>
+  </si>
+  <si>
+    <t>₹17</t>
+  </si>
+  <si>
+    <t>₹26.03</t>
+  </si>
+  <si>
+    <t>₹122</t>
+  </si>
+  <si>
+    <t>₹68</t>
+  </si>
+  <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹50.68</t>
+  </si>
+  <si>
+    <t>₹189.04</t>
+  </si>
+  <si>
+    <t>₹107</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹92</t>
+  </si>
+  <si>
+    <t>₹83</t>
+  </si>
+  <si>
+    <t>₹93</t>
+  </si>
+  <si>
+    <t>₹81</t>
+  </si>
+  <si>
+    <t>₹153</t>
+  </si>
+  <si>
+    <t>₹357</t>
+  </si>
+  <si>
+    <t>₹22</t>
+  </si>
+  <si>
+    <t>₹88</t>
+  </si>
+  <si>
+    <t>₹58.9</t>
+  </si>
+  <si>
+    <t>₹496</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹49</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹223.29</t>
+  </si>
+  <si>
+    <t>₹98</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹210</t>
+  </si>
+  <si>
+    <t>₹161</t>
+  </si>
+  <si>
+    <t>₹128</t>
+  </si>
+  <si>
+    <t>₹106</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹43</t>
+  </si>
+  <si>
+    <t>₹120</t>
+  </si>
+  <si>
+    <t>₹16</t>
+  </si>
+  <si>
+    <t>₹45</t>
+  </si>
+  <si>
+    <t>₹150</t>
+  </si>
+  <si>
+    <t>₹69</t>
+  </si>
+  <si>
+    <t>₹355</t>
+  </si>
+  <si>
+    <t>₹108</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹12</t>
+  </si>
+  <si>
+    <t>₹33.5</t>
+  </si>
+  <si>
+    <t>₹13</t>
+  </si>
+  <si>
+    <t>₹20</t>
+  </si>
+  <si>
+    <t>₹73.5</t>
+  </si>
+  <si>
+    <t>₹19.5</t>
+  </si>
+  <si>
+    <t>₹24</t>
+  </si>
+  <si>
+    <t>₹95.2</t>
+  </si>
+  <si>
+    <t>₹15.57</t>
+  </si>
+  <si>
+    <t>₹19</t>
+  </si>
+  <si>
+    <t>₹21</t>
+  </si>
+  <si>
+    <t>₹97.09</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹121.18</t>
+  </si>
+  <si>
+    <t>₹161.33</t>
+  </si>
+  <si>
+    <t>₹52.74</t>
+  </si>
+  <si>
+    <t>₹37.23</t>
+  </si>
+  <si>
+    <t>₹113.4</t>
+  </si>
+  <si>
+    <t>₹81.4</t>
+  </si>
+  <si>
+    <t>₹71.4</t>
+  </si>
+  <si>
+    <t>₹131.6</t>
+  </si>
+  <si>
+    <t>₹41.3</t>
+  </si>
+  <si>
+    <t>₹27.01</t>
+  </si>
+  <si>
+    <t>₹12.41</t>
+  </si>
+  <si>
+    <t>₹89.06</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>₹138</t>
+  </si>
+  <si>
+    <t>₹78.11</t>
+  </si>
+  <si>
+    <t>₹81.03</t>
+  </si>
+  <si>
+    <t>₹85.4</t>
+  </si>
+  <si>
+    <t>₹67.16</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹60.59</t>
+  </si>
+  <si>
+    <t>₹43.07</t>
+  </si>
+  <si>
+    <t>₹65.1</t>
+  </si>
+  <si>
+    <t>₹129</t>
+  </si>
+  <si>
+    <t>₹47.6</t>
+  </si>
+  <si>
+    <t>₹59.13</t>
+  </si>
+  <si>
+    <t>₹111.69</t>
+  </si>
+  <si>
+    <t>₹260.61</t>
+  </si>
+  <si>
+    <t>₹22.63</t>
+  </si>
+  <si>
+    <t>₹8</t>
+  </si>
+  <si>
+    <t>₹61.6</t>
+  </si>
+  <si>
+    <t>₹57.4</t>
+  </si>
+  <si>
+    <t>₹362.08</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹34.3</t>
+  </si>
+  <si>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹26.28</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹163</t>
+  </si>
+  <si>
+    <t>₹29.2</t>
+  </si>
+  <si>
+    <t>₹71.54</t>
+  </si>
+  <si>
+    <t>₹42.34</t>
+  </si>
+  <si>
+    <t>₹147</t>
+  </si>
+  <si>
+    <t>₹117.53</t>
+  </si>
+  <si>
+    <t>₹45.26</t>
+  </si>
+  <si>
+    <t>₹77.38</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>₹63</t>
+  </si>
+  <si>
+    <t>₹31.39</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹87.6</t>
+  </si>
+  <si>
+    <t>₹11.68</t>
+  </si>
+  <si>
+    <t>₹31.5</t>
+  </si>
+  <si>
+    <t>₹109.5</t>
+  </si>
+  <si>
+    <t>₹50.37</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
+  </si>
+  <si>
+    <t>43% OFF</t>
+  </si>
+  <si>
+    <t>56% OFF</t>
+  </si>
+  <si>
+    <t>52% OFF</t>
+  </si>
+  <si>
+    <t>54% OFF</t>
+  </si>
+  <si>
+    <t>47% OFF</t>
+  </si>
+  <si>
+    <t>30% OFF</t>
+  </si>
+  <si>
+    <t>60% OFF</t>
+  </si>
+  <si>
+    <t>65% OFF</t>
+  </si>
+  <si>
+    <t>48% OFF</t>
+  </si>
+  <si>
+    <t>33% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>34% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>61% OFF</t>
+  </si>
+  <si>
+    <t>40% OFF</t>
+  </si>
+  <si>
+    <t>31% OFF</t>
+  </si>
+  <si>
+    <t>64% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>5 kg</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>10 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 2.5 to 4 Kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx 500-1kg)</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>2023-11-09 13:13:38</t>
+  </si>
+  <si>
+    <t>2023-11-10 15:16:06</t>
+  </si>
+  <si>
+    <t>Cut Indian Fruit Pack</t>
+  </si>
+  <si>
+    <t>Watermelon  - Small</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Baby Apple Shimla</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Small (Loose)</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Small</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Raw Mango (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Premium</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur Premium</t>
+  </si>
+  <si>
+    <t>Mango - Raw Totapuri</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Wood Apple - Kothbel (Loose)</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Organically Grown</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Sweet Mandarin</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Kashmir, Regular</t>
+  </si>
+  <si>
+    <t>Sugarcane - Diced</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Apple - Green, Premium</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Apple - Kashmir, Premium</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Apple - Queen, Rose</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Apple - Fuji Premium</t>
+  </si>
+  <si>
+    <t>Banana - Robusta, Organically Grown</t>
+  </si>
+  <si>
+    <t>Apple - Kinnaur, Regular</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Grape Fruit - Indian (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Premium</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Kiwi - Dried</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>₹169.86</t>
+  </si>
+  <si>
+    <t>₹87</t>
+  </si>
+  <si>
+    <t>₹134</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹328</t>
+  </si>
+  <si>
+    <t>₹207</t>
+  </si>
+  <si>
+    <t>₹373</t>
+  </si>
+  <si>
+    <t>₹495</t>
+  </si>
+  <si>
     <t>₹199</t>
   </si>
   <si>
+    <t>₹86.3</t>
+  </si>
+  <si>
+    <t>₹94</t>
+  </si>
+  <si>
+    <t>₹96</t>
+  </si>
+  <si>
+    <t>₹350</t>
+  </si>
+  <si>
+    <t>₹39</t>
+  </si>
+  <si>
+    <t>₹410</t>
+  </si>
+  <si>
+    <t>₹115</t>
+  </si>
+  <si>
+    <t>₹117</t>
+  </si>
+  <si>
+    <t>₹131</t>
+  </si>
+  <si>
+    <t>₹80</t>
+  </si>
+  <si>
     <t>₹79</t>
   </si>
   <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹32</t>
-  </si>
-  <si>
-    <t>₹43</t>
-  </si>
-  <si>
-    <t>₹105</t>
-  </si>
-  <si>
-    <t>₹48.63</t>
-  </si>
-  <si>
-    <t>₹50</t>
-  </si>
-  <si>
-    <t>₹31</t>
-  </si>
-  <si>
-    <t>₹33</t>
-  </si>
-  <si>
-    <t>₹82</t>
-  </si>
-  <si>
-    <t>₹136</t>
-  </si>
-  <si>
-    <t>₹22.24</t>
-  </si>
-  <si>
-    <t>₹29</t>
-  </si>
-  <si>
-    <t>₹133</t>
-  </si>
-  <si>
-    <t>₹56.85</t>
-  </si>
-  <si>
-    <t>₹166</t>
-  </si>
-  <si>
-    <t>₹248</t>
-  </si>
-  <si>
-    <t>₹75.34</t>
+    <t>₹310</t>
+  </si>
+  <si>
+    <t>₹442</t>
+  </si>
+  <si>
+    <t>₹175</t>
+  </si>
+  <si>
+    <t>₹113</t>
+  </si>
+  <si>
+    <t>₹555</t>
+  </si>
+  <si>
+    <t>₹538</t>
+  </si>
+  <si>
+    <t>₹155</t>
+  </si>
+  <si>
+    <t>₹404.11</t>
+  </si>
+  <si>
+    <t>₹137</t>
   </si>
   <si>
     <t>₹46</t>
   </si>
   <si>
-    <t>₹176</t>
-  </si>
-  <si>
-    <t>₹143</t>
-  </si>
-  <si>
-    <t>₹102</t>
-  </si>
-  <si>
-    <t>₹73</t>
-  </si>
-  <si>
-    <t>₹188</t>
-  </si>
-  <si>
-    <t>₹56</t>
-  </si>
-  <si>
-    <t>₹17</t>
-  </si>
-  <si>
-    <t>₹26.03</t>
-  </si>
-  <si>
-    <t>₹122</t>
-  </si>
-  <si>
-    <t>₹68</t>
-  </si>
-  <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹47</t>
-  </si>
-  <si>
-    <t>₹189.04</t>
-  </si>
-  <si>
-    <t>₹107</t>
-  </si>
-  <si>
-    <t>₹59</t>
-  </si>
-  <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹28</t>
+    <t>₹440</t>
+  </si>
+  <si>
+    <t>₹517</t>
+  </si>
+  <si>
+    <t>₹181</t>
+  </si>
+  <si>
+    <t>₹312</t>
+  </si>
+  <si>
+    <t>₹212</t>
+  </si>
+  <si>
+    <t>₹846</t>
+  </si>
+  <si>
+    <t>₹258</t>
+  </si>
+  <si>
+    <t>₹259</t>
+  </si>
+  <si>
+    <t>₹474</t>
+  </si>
+  <si>
+    <t>₹168</t>
+  </si>
+  <si>
+    <t>₹34.25</t>
+  </si>
+  <si>
+    <t>₹220</t>
+  </si>
+  <si>
+    <t>₹501.36</t>
+  </si>
+  <si>
+    <t>₹121</t>
+  </si>
+  <si>
+    <t>₹380</t>
+  </si>
+  <si>
+    <t>₹324.34</t>
+  </si>
+  <si>
+    <t>₹476</t>
+  </si>
+  <si>
+    <t>₹116</t>
+  </si>
+  <si>
+    <t>₹91</t>
+  </si>
+  <si>
+    <t>₹66</t>
+  </si>
+  <si>
+    <t>₹101.37</t>
+  </si>
+  <si>
+    <t>₹210.53</t>
+  </si>
+  <si>
+    <t>₹235</t>
+  </si>
+  <si>
+    <t>₹72</t>
+  </si>
+  <si>
+    <t>₹1146</t>
+  </si>
+  <si>
+    <t>₹350.68</t>
+  </si>
+  <si>
+    <t>₹91.78</t>
+  </si>
+  <si>
+    <t>₹758</t>
+  </si>
+  <si>
+    <t>₹205</t>
+  </si>
+  <si>
+    <t>₹194.52</t>
+  </si>
+  <si>
+    <t>₹276</t>
+  </si>
+  <si>
+    <t>₹462</t>
+  </si>
+  <si>
+    <t>₹124</t>
+  </si>
+  <si>
+    <t>₹63.51</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
+    <t>₹89</t>
+  </si>
+  <si>
+    <t>₹239.44</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
+    <t>₹272.29</t>
+  </si>
+  <si>
+    <t>₹361.35</t>
+  </si>
+  <si>
+    <t>₹130</t>
+  </si>
+  <si>
+    <t>₹68.62</t>
+  </si>
+  <si>
+    <t>₹255.5</t>
+  </si>
+  <si>
+    <t>₹287</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹60</t>
+  </si>
+  <si>
+    <t>₹95.63</t>
+  </si>
+  <si>
+    <t>₹58.4</t>
+  </si>
+  <si>
+    <t>₹85.41</t>
+  </si>
+  <si>
+    <t>₹226.3</t>
+  </si>
+  <si>
+    <t>₹298</t>
+  </si>
+  <si>
+    <t>₹57.67</t>
+  </si>
+  <si>
+    <t>₹122.5</t>
+  </si>
+  <si>
+    <t>₹82.49</t>
+  </si>
+  <si>
+    <t>₹405.15</t>
+  </si>
+  <si>
+    <t>₹392.74</t>
+  </si>
+  <si>
+    <t>₹113.15</t>
+  </si>
+  <si>
+    <t>₹70.08</t>
+  </si>
+  <si>
+    <t>₹322.66</t>
+  </si>
+  <si>
+    <t>₹295</t>
+  </si>
+  <si>
+    <t>₹79.1</t>
+  </si>
+  <si>
+    <t>₹100.01</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹321.2</t>
+  </si>
+  <si>
+    <t>₹64.24</t>
+  </si>
+  <si>
+    <t>₹377.41</t>
+  </si>
+  <si>
+    <t>₹132.13</t>
+  </si>
+  <si>
+    <t>₹218.4</t>
+  </si>
+  <si>
+    <t>₹148.4</t>
+  </si>
+  <si>
+    <t>₹617.58</t>
+  </si>
+  <si>
+    <t>₹188.34</t>
+  </si>
+  <si>
+    <t>₹189.07</t>
+  </si>
+  <si>
+    <t>₹346.02</t>
+  </si>
+  <si>
+    <t>₹122.64</t>
+  </si>
+  <si>
+    <t>₹118.26</t>
+  </si>
+  <si>
+    <t>₹160.6</t>
+  </si>
+  <si>
+    <t>₹365.99</t>
+  </si>
+  <si>
+    <t>₹88.33</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹277.4</t>
+  </si>
+  <si>
+    <t>₹236.77</t>
+  </si>
+  <si>
+    <t>₹35.04</t>
+  </si>
+  <si>
+    <t>₹347.48</t>
+  </si>
+  <si>
+    <t>₹84.68</t>
+  </si>
+  <si>
+    <t>₹66.43</t>
+  </si>
+  <si>
+    <t>₹153.3</t>
+  </si>
+  <si>
+    <t>₹48.18</t>
   </si>
   <si>
     <t>₹74</t>
   </si>
   <si>
-    <t>₹93</t>
-  </si>
-  <si>
-    <t>₹191</t>
-  </si>
-  <si>
-    <t>₹81</t>
-  </si>
-  <si>
-    <t>₹153</t>
-  </si>
-  <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹357</t>
-  </si>
-  <si>
-    <t>₹21</t>
-  </si>
-  <si>
-    <t>₹58.9</t>
-  </si>
-  <si>
-    <t>₹527</t>
-  </si>
-  <si>
-    <t>₹87</t>
-  </si>
-  <si>
-    <t>₹48</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹223.29</t>
-  </si>
-  <si>
-    <t>₹98</t>
-  </si>
-  <si>
-    <t>₹58</t>
-  </si>
-  <si>
-    <t>₹149</t>
-  </si>
-  <si>
-    <t>₹161</t>
-  </si>
-  <si>
-    <t>₹128</t>
-  </si>
-  <si>
-    <t>₹106</t>
-  </si>
-  <si>
-    <t>₹51</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹88</t>
-  </si>
-  <si>
-    <t>₹120</t>
-  </si>
-  <si>
-    <t>₹16</t>
-  </si>
-  <si>
-    <t>₹45</t>
-  </si>
-  <si>
-    <t>₹140</t>
-  </si>
-  <si>
-    <t>₹69</t>
-  </si>
-  <si>
-    <t>₹355</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹52</t>
-  </si>
-  <si>
-    <t>₹13</t>
-  </si>
-  <si>
-    <t>₹20</t>
-  </si>
-  <si>
-    <t>₹73.5</t>
-  </si>
-  <si>
-    <t>₹19.5</t>
-  </si>
-  <si>
-    <t>₹12</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
-    <t>₹95.2</t>
-  </si>
-  <si>
-    <t>₹15.57</t>
-  </si>
-  <si>
-    <t>₹97.09</t>
-  </si>
-  <si>
-    <t>₹30</t>
-  </si>
-  <si>
-    <t>₹121.18</t>
-  </si>
-  <si>
-    <t>₹181.04</t>
-  </si>
-  <si>
-    <t>₹52.74</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
-  </si>
-  <si>
-    <t>₹123.2</t>
-  </si>
-  <si>
-    <t>₹81.4</t>
-  </si>
-  <si>
-    <t>₹71.4</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>₹131.6</t>
-  </si>
-  <si>
-    <t>₹39.2</t>
-  </si>
-  <si>
-    <t>₹31.39</t>
-  </si>
-  <si>
-    <t>₹12.41</t>
-  </si>
-  <si>
-    <t>₹19</t>
-  </si>
-  <si>
-    <t>₹89.06</t>
-  </si>
-  <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹55.48</t>
-  </si>
-  <si>
-    <t>₹34.31</t>
-  </si>
-  <si>
-    <t>₹138</t>
-  </si>
-  <si>
-    <t>₹78.11</t>
-  </si>
-  <si>
-    <t>₹38</t>
-  </si>
-  <si>
-    <t>₹85.4</t>
-  </si>
-  <si>
-    <t>₹75.19</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>₹54.02</t>
-  </si>
-  <si>
-    <t>₹43.07</t>
-  </si>
-  <si>
-    <t>₹65.1</t>
-  </si>
-  <si>
-    <t>₹129</t>
-  </si>
-  <si>
-    <t>₹47.6</t>
-  </si>
-  <si>
-    <t>₹59.13</t>
-  </si>
-  <si>
-    <t>₹111.69</t>
-  </si>
-  <si>
-    <t>₹49</t>
-  </si>
-  <si>
-    <t>₹81.03</t>
-  </si>
-  <si>
-    <t>₹260.61</t>
-  </si>
-  <si>
-    <t>₹22.63</t>
-  </si>
-  <si>
-    <t>₹8</t>
-  </si>
-  <si>
-    <t>₹57.4</t>
-  </si>
-  <si>
-    <t>₹384.71</t>
-  </si>
-  <si>
-    <t>₹63.51</t>
-  </si>
-  <si>
-    <t>₹33.6</t>
-  </si>
-  <si>
-    <t>₹39.42</t>
-  </si>
-  <si>
-    <t>₹36.5</t>
-  </si>
-  <si>
-    <t>₹163</t>
-  </si>
-  <si>
-    <t>₹71.54</t>
-  </si>
-  <si>
-    <t>₹42.34</t>
-  </si>
-  <si>
-    <t>₹104.3</t>
-  </si>
-  <si>
-    <t>₹117.53</t>
-  </si>
-  <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
-    <t>₹77.38</t>
-  </si>
-  <si>
-    <t>₹37.23</t>
-  </si>
-  <si>
-    <t>₹63</t>
-  </si>
-  <si>
-    <t>₹41.61</t>
-  </si>
-  <si>
-    <t>₹32.12</t>
-  </si>
-  <si>
-    <t>₹87.6</t>
-  </si>
-  <si>
-    <t>₹11.68</t>
-  </si>
-  <si>
-    <t>₹31.5</t>
-  </si>
-  <si>
-    <t>₹102.2</t>
-  </si>
-  <si>
-    <t>₹50.37</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>37% OFF</t>
-  </si>
-  <si>
-    <t>34% OFF</t>
-  </si>
-  <si>
-    <t>48% OFF</t>
-  </si>
-  <si>
-    <t>59% OFF</t>
-  </si>
-  <si>
-    <t>53% OFF</t>
-  </si>
-  <si>
-    <t>30% OFF</t>
-  </si>
-  <si>
-    <t>60% OFF</t>
-  </si>
-  <si>
-    <t>66% OFF</t>
-  </si>
-  <si>
-    <t>61% OFF</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
-    <t>31% OFF</t>
+    <t>₹153.69</t>
+  </si>
+  <si>
+    <t>₹171.55</t>
+  </si>
+  <si>
+    <t>₹52.56</t>
+  </si>
+  <si>
+    <t>₹836.58</t>
+  </si>
+  <si>
+    <t>₹65.7</t>
+  </si>
+  <si>
+    <t>₹256</t>
+  </si>
+  <si>
+    <t>₹104.39</t>
+  </si>
+  <si>
+    <t>₹67</t>
+  </si>
+  <si>
+    <t>₹553.34</t>
+  </si>
+  <si>
+    <t>₹149.65</t>
+  </si>
+  <si>
+    <t>₹142</t>
+  </si>
+  <si>
+    <t>₹201.48</t>
+  </si>
+  <si>
+    <t>₹337.26</t>
+  </si>
+  <si>
+    <t>42% OFF</t>
+  </si>
+  <si>
+    <t>36% OFF</t>
+  </si>
+  <si>
+    <t>35% OFF</t>
   </si>
   <si>
     <t>28% OFF</t>
   </si>
   <si>
-    <t>65% OFF</t>
-  </si>
-  <si>
-    <t>43% OFF</t>
-  </si>
-  <si>
-    <t>36% OFF</t>
-  </si>
-  <si>
-    <t>32% OFF</t>
-  </si>
-  <si>
-    <t>62% OFF</t>
-  </si>
-  <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>5 kg - Multipack</t>
-  </si>
-  <si>
-    <t>5 kg</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx. 180g - 200 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 500 g - 800 g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100 g)</t>
-  </si>
-  <si>
-    <t>10 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 250g-500g)</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>350 g (2 pieces)</t>
-  </si>
-  <si>
-    <t>1 Kg</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 400 to 600 g</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 2.5 to 4 Kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx 500-1kg)</t>
-  </si>
-  <si>
-    <t>1 pc (approx. 300-1.3 Kg)</t>
-  </si>
-  <si>
-    <t>2023-11-09 13:13:38</t>
-  </si>
-  <si>
-    <t>Avocado (Loose)</t>
-  </si>
-  <si>
-    <t>Cut Indian Fruit Pack</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Baby Apple Shimla</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Watermelon  - Small</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Small (Loose)</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Small</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Avocado</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Raw Mango (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Premium</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur Premium</t>
-  </si>
-  <si>
-    <t>Mango - Raw Totapuri</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Wood Apple - Kothbel (Loose)</t>
-  </si>
-  <si>
-    <t>Passion Fruit</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Organically Grown</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Sweet Mandarin</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Kashmir, Regular</t>
-  </si>
-  <si>
-    <t>Sugarcane - Diced</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Apple - Green, Premium</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Apple - Kashmir, Premium</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Apple - Queen, Rose</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Apple - Fuji Premium</t>
-  </si>
-  <si>
-    <t>Banana - Robusta, Organically Grown</t>
-  </si>
-  <si>
-    <t>Apple - Kinnaur, Regular</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Grape Fruit - Indian (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Premium</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Kiwi - Dried</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>₹531</t>
-  </si>
-  <si>
-    <t>₹169.86</t>
-  </si>
-  <si>
-    <t>₹42.47</t>
-  </si>
-  <si>
-    <t>₹40</t>
-  </si>
-  <si>
-    <t>₹328</t>
-  </si>
-  <si>
-    <t>₹216</t>
-  </si>
-  <si>
-    <t>₹373</t>
-  </si>
-  <si>
-    <t>₹492</t>
-  </si>
-  <si>
-    <t>₹94</t>
-  </si>
-  <si>
-    <t>₹96</t>
-  </si>
-  <si>
-    <t>₹350</t>
-  </si>
-  <si>
-    <t>₹410</t>
-  </si>
-  <si>
-    <t>₹115</t>
-  </si>
-  <si>
-    <t>₹83</t>
-  </si>
-  <si>
-    <t>₹131</t>
-  </si>
-  <si>
-    <t>₹117</t>
-  </si>
-  <si>
-    <t>₹310</t>
-  </si>
-  <si>
-    <t>₹442</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹113</t>
-  </si>
-  <si>
-    <t>₹134</t>
-  </si>
-  <si>
-    <t>₹538</t>
-  </si>
-  <si>
-    <t>₹404.11</t>
-  </si>
-  <si>
-    <t>₹440</t>
-  </si>
-  <si>
-    <t>₹517</t>
-  </si>
-  <si>
-    <t>₹181</t>
-  </si>
-  <si>
-    <t>₹312</t>
-  </si>
-  <si>
-    <t>₹212</t>
-  </si>
-  <si>
-    <t>₹846</t>
-  </si>
-  <si>
-    <t>₹258</t>
-  </si>
-  <si>
-    <t>₹259</t>
-  </si>
-  <si>
-    <t>₹474</t>
-  </si>
-  <si>
-    <t>₹168</t>
-  </si>
-  <si>
-    <t>₹35.62</t>
-  </si>
-  <si>
-    <t>₹162</t>
-  </si>
-  <si>
-    <t>₹220</t>
-  </si>
-  <si>
-    <t>₹501.36</t>
-  </si>
-  <si>
-    <t>₹380</t>
-  </si>
-  <si>
-    <t>₹324.34</t>
-  </si>
-  <si>
-    <t>₹476</t>
-  </si>
-  <si>
-    <t>₹116</t>
-  </si>
-  <si>
-    <t>₹91</t>
-  </si>
-  <si>
-    <t>₹210</t>
-  </si>
-  <si>
-    <t>₹66</t>
-  </si>
-  <si>
-    <t>₹101.37</t>
-  </si>
-  <si>
-    <t>₹210.53</t>
-  </si>
-  <si>
-    <t>₹235</t>
-  </si>
-  <si>
-    <t>₹1146</t>
-  </si>
-  <si>
-    <t>₹92</t>
-  </si>
-  <si>
-    <t>₹350.68</t>
-  </si>
-  <si>
-    <t>₹124</t>
-  </si>
-  <si>
-    <t>₹102.74</t>
-  </si>
-  <si>
-    <t>₹758</t>
-  </si>
-  <si>
-    <t>₹205</t>
-  </si>
-  <si>
-    <t>₹137</t>
-  </si>
-  <si>
-    <t>₹194.52</t>
-  </si>
-  <si>
-    <t>₹276</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹387.63</t>
-  </si>
-  <si>
-    <t>₹104</t>
-  </si>
-  <si>
-    <t>₹155</t>
-  </si>
-  <si>
-    <t>₹272.29</t>
-  </si>
-  <si>
-    <t>₹245</t>
-  </si>
-  <si>
-    <t>₹130</t>
-  </si>
-  <si>
-    <t>₹68.62</t>
-  </si>
-  <si>
-    <t>₹70.08</t>
-  </si>
-  <si>
-    <t>₹255.5</t>
-  </si>
-  <si>
-    <t>₹27</t>
-  </si>
-  <si>
-    <t>₹287</t>
-  </si>
-  <si>
-    <t>₹60</t>
-  </si>
-  <si>
-    <t>₹95.63</t>
-  </si>
-  <si>
-    <t>₹57.67</t>
-  </si>
-  <si>
-    <t>₹226.3</t>
-  </si>
-  <si>
-    <t>₹298</t>
-  </si>
-  <si>
-    <t>₹61.32</t>
-  </si>
-  <si>
-    <t>₹82.49</t>
-  </si>
-  <si>
-    <t>₹392.74</t>
-  </si>
-  <si>
-    <t>₹322.66</t>
-  </si>
-  <si>
-    <t>₹295</t>
-  </si>
-  <si>
-    <t>₹79.1</t>
-  </si>
-  <si>
-    <t>₹99.28</t>
-  </si>
-  <si>
-    <t>₹76.65</t>
-  </si>
-  <si>
-    <t>₹321.2</t>
-  </si>
-  <si>
-    <t>₹93.44</t>
-  </si>
-  <si>
-    <t>₹239.44</t>
-  </si>
-  <si>
-    <t>₹65.7</t>
-  </si>
-  <si>
-    <t>₹377.41</t>
-  </si>
-  <si>
-    <t>₹132.13</t>
-  </si>
-  <si>
-    <t>₹218.4</t>
-  </si>
-  <si>
-    <t>₹148.4</t>
-  </si>
-  <si>
-    <t>₹617.58</t>
-  </si>
-  <si>
-    <t>₹188.34</t>
-  </si>
-  <si>
-    <t>₹61.6</t>
-  </si>
-  <si>
-    <t>₹189.07</t>
-  </si>
-  <si>
-    <t>₹308</t>
-  </si>
-  <si>
-    <t>₹122.64</t>
-  </si>
-  <si>
-    <t>₹26</t>
-  </si>
-  <si>
-    <t>₹118.26</t>
-  </si>
-  <si>
-    <t>₹160.6</t>
-  </si>
-  <si>
-    <t>₹365.99</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹277.4</t>
-  </si>
-  <si>
-    <t>₹236.77</t>
-  </si>
-  <si>
-    <t>₹347.48</t>
-  </si>
-  <si>
-    <t>₹84.68</t>
-  </si>
-  <si>
-    <t>₹66.43</t>
-  </si>
-  <si>
-    <t>₹153.3</t>
-  </si>
-  <si>
-    <t>₹48.18</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹171.55</t>
-  </si>
-  <si>
-    <t>₹836.58</t>
-  </si>
-  <si>
-    <t>₹67.16</t>
-  </si>
-  <si>
-    <t>₹256</t>
-  </si>
-  <si>
-    <t>₹90.52</t>
-  </si>
-  <si>
-    <t>₹104.39</t>
-  </si>
-  <si>
-    <t>₹75</t>
-  </si>
-  <si>
-    <t>₹553.34</t>
-  </si>
-  <si>
-    <t>₹149.65</t>
-  </si>
-  <si>
-    <t>₹100.01</t>
-  </si>
-  <si>
-    <t>₹142</t>
-  </si>
-  <si>
-    <t>₹201.48</t>
-  </si>
-  <si>
-    <t>₹337.26</t>
-  </si>
-  <si>
-    <t>45% OFF</t>
-  </si>
-  <si>
-    <t>50% OFF</t>
-  </si>
-  <si>
-    <t>35% OFF</t>
-  </si>
-  <si>
-    <t>33% OFF</t>
-  </si>
-  <si>
-    <t>40% OFF</t>
-  </si>
-  <si>
-    <t>42% OFF</t>
+    <t>38% OFF</t>
   </si>
   <si>
     <t>Fresh Fruits</t>
@@ -1541,6 +1583,9 @@
     <t>400 g</t>
   </si>
   <si>
+    <t>1 pc - 1.7 - 2.5 kg</t>
+  </si>
+  <si>
     <t>1 kg - (Approx. 6 - 8 pcs)</t>
   </si>
   <si>
@@ -1559,7 +1604,7 @@
     <t>4 pcs - (Approx.450 g-500 g)</t>
   </si>
   <si>
-    <t>1 pc - 1.7 - 2.5 kg</t>
+    <t>1 pc - 2.5 - 3.8 kg</t>
   </si>
   <si>
     <t>3 pcs</t>
@@ -1574,9 +1619,6 @@
     <t>1 pc - 500 g - 800 g</t>
   </si>
   <si>
-    <t>2 kg</t>
-  </si>
-  <si>
     <t>125 g</t>
   </si>
   <si>
@@ -1662,6 +1704,12 @@
   </si>
   <si>
     <t>2023-11-09 13:14:08</t>
+  </si>
+  <si>
+    <t>2023-11-10 10:42:01</t>
+  </si>
+  <si>
+    <t>2023-11-10 15:16:39</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2053,22 +2101,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2076,22 +2124,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2099,22 +2147,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2122,22 +2170,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2145,22 +2193,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2168,22 +2216,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2191,22 +2239,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2214,22 +2262,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G9" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2237,22 +2285,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2260,22 +2308,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F11" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2283,22 +2331,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G12" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2306,22 +2354,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F13" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G13" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2329,22 +2377,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F14" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G14" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2352,22 +2400,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G15" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2375,22 +2423,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F16" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G16" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2398,22 +2446,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E17" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G17" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2421,22 +2469,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F18" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G18" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2444,22 +2492,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F19" t="s">
         <v>269</v>
       </c>
       <c r="G19" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2467,22 +2515,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E20" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F20" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G20" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2490,22 +2538,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E21" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F21" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G21" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2513,22 +2561,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E22" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F22" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G22" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2536,22 +2584,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E23" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F23" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G23" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2559,22 +2607,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F24" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G24" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2582,22 +2630,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D25" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E25" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2605,22 +2653,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E26" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F26" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="G26" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2628,22 +2676,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F27" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G27" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2651,22 +2699,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D28" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E28" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G28" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2674,22 +2722,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E29" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2697,22 +2745,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G30" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2720,22 +2768,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2743,22 +2791,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D32" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2766,22 +2814,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2789,22 +2837,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G34" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2812,22 +2860,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G35" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2835,22 +2883,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G36" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2858,22 +2906,22 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G37" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2881,22 +2929,22 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2904,22 +2952,22 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G39" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2927,22 +2975,22 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F40" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G40" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2950,22 +2998,22 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F41" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G41" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2973,22 +3021,22 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E42" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F42" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G42" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2996,22 +3044,22 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E43" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F43" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G43" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3019,22 +3067,22 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D44" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F44" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G44" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3042,22 +3090,22 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D45" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F45" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G45" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3065,22 +3113,22 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E46" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F46" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G46" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3088,22 +3136,22 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E47" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F47" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G47" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3111,22 +3159,22 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E48" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F48" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G48" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3134,22 +3182,22 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D49" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E49" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F49" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="G49" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3157,22 +3205,22 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E50" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F50" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G50" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3180,22 +3228,22 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F51" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G51" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3203,22 +3251,22 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E52" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F52" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G52" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3229,19 +3277,19 @@
         <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="E53" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F53" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G53" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3249,22 +3297,22 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F54" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G54" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3272,22 +3320,22 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D55" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E55" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F55" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G55" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3295,22 +3343,22 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D56" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F56" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G56" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3318,22 +3366,22 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F57" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G57" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3341,22 +3389,22 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E58" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F58" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G58" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3364,22 +3412,22 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E59" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F59" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G59" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3387,22 +3435,22 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E60" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F60" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G60" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3410,22 +3458,22 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E61" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F61" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G61" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3433,22 +3481,22 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D62" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E62" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F62" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G62" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3456,22 +3504,22 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E63" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F63" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G63" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3479,22 +3527,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D64" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F64" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G64" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3502,22 +3550,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="D65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F65" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G65" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3525,22 +3573,22 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F66" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G66" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3548,22 +3596,22 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
         <v>220</v>
       </c>
       <c r="D67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F67" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G67" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3571,22 +3619,22 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s">
         <v>221</v>
       </c>
       <c r="D68" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E68" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F68" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G68" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3594,22 +3642,22 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
         <v>222</v>
       </c>
       <c r="D69" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E69" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F69" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G69" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3617,22 +3665,22 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E70" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F70" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G70" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3640,22 +3688,22 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D71" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E71" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F71" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="G71" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3663,22 +3711,22 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
         <v>224</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E72" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F72" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G72" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3686,22 +3734,22 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="D73" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E73" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F73" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="G73" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3709,22 +3757,22 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D74" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F74" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G74" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3732,22 +3780,22 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E75" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F75" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G75" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3755,22 +3803,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E76" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F76" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G76" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3778,22 +3826,22 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E77" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F77" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G77" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3801,22 +3849,22 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E78" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F78" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G78" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3824,22 +3872,22 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E79" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F79" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G79" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3847,22 +3895,22 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E80" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F80" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G80" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3870,22 +3918,22 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E81" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F81" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G81" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3893,22 +3941,22 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="D82" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F82" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G82" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3916,22 +3964,22 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="D83" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E83" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F83" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G83" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3939,22 +3987,22 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D84" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E84" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F84" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G84" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3962,22 +4010,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="D85" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E85" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F85" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G85" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3985,22 +4033,22 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C86" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D86" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E86" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F86" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G86" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4008,22 +4056,22 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="D87" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E87" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F87" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G87" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4031,22 +4079,22 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C88" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F88" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="G88" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4054,22 +4102,22 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="D89" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F89" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G89" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4077,22 +4125,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="D90" t="s">
         <v>256</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F90" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="G90" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4100,22 +4148,22 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C91" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D91" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F91" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G91" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4123,22 +4171,22 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D92" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F92" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G92" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4146,22 +4194,22 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="D93" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E93" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F93" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="G93" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4169,22 +4217,22 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D94" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E94" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F94" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G94" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4192,22 +4240,22 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F95" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G95" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4215,22 +4263,45 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F96" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G96" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" t="s">
+        <v>256</v>
+      </c>
+      <c r="E97" t="s">
+        <v>263</v>
+      </c>
+      <c r="F97" t="s">
         <v>282</v>
+      </c>
+      <c r="G97" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4240,7 +4311,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4271,2187 +4342,2210 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>521</v>
       </c>
       <c r="G2" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F3" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="G3" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F4" t="s">
-        <v>508</v>
+        <v>267</v>
       </c>
       <c r="G4" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E5" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>523</v>
       </c>
       <c r="G5" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>449</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
+        <v>515</v>
       </c>
       <c r="E7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F7" t="s">
-        <v>509</v>
+        <v>268</v>
       </c>
       <c r="G7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>403</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>500</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F8" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="G8" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C9" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E9" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F9" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G9" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E10" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F10" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="G10" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>390</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>452</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F11" t="s">
-        <v>278</v>
+        <v>527</v>
       </c>
       <c r="G11" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>440</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="E12" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F12" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G12" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>391</v>
       </c>
       <c r="C13" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="D13" t="s">
-        <v>502</v>
+        <v>256</v>
       </c>
       <c r="E13" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F13" t="s">
-        <v>513</v>
+        <v>268</v>
       </c>
       <c r="G13" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>392</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>454</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>517</v>
       </c>
       <c r="E14" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F14" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="G14" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C15" t="s">
-        <v>442</v>
+        <v>236</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E15" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F15" t="s">
-        <v>263</v>
+        <v>529</v>
       </c>
       <c r="G15" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C16" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E16" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F16" t="s">
-        <v>515</v>
+        <v>268</v>
       </c>
       <c r="G16" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C17" t="s">
-        <v>444</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E17" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F17" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="G17" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="C18" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="D18" t="s">
-        <v>503</v>
+        <v>256</v>
       </c>
       <c r="E18" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F18" t="s">
-        <v>265</v>
+        <v>531</v>
       </c>
       <c r="G18" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C19" t="s">
-        <v>446</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F19" t="s">
-        <v>510</v>
+        <v>269</v>
       </c>
       <c r="G19" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>457</v>
       </c>
       <c r="D20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F20" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G20" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>399</v>
       </c>
       <c r="C21" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F21" t="s">
-        <v>263</v>
+        <v>532</v>
       </c>
       <c r="G21" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B22" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C22" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="D22" t="s">
-        <v>254</v>
+        <v>518</v>
       </c>
       <c r="E22" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F22" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G22" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
-        <v>392</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>518</v>
       </c>
       <c r="E23" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F23" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G23" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>401</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>460</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E24" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F24" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G24" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>402</v>
       </c>
       <c r="C25" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="D25" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E25" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F25" t="s">
-        <v>518</v>
+        <v>282</v>
       </c>
       <c r="G25" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="E26" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F26" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="G26" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B27" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C27" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D27" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E27" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F27" t="s">
-        <v>520</v>
+        <v>265</v>
       </c>
       <c r="G27" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B28" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C28" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="D28" t="s">
-        <v>503</v>
+        <v>256</v>
       </c>
       <c r="E28" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F28" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="G28" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C29" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E29" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>525</v>
       </c>
       <c r="G29" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>403</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="D30" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E30" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F30" t="s">
-        <v>521</v>
+        <v>268</v>
       </c>
       <c r="G30" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D31" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E31" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>535</v>
       </c>
       <c r="G31" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C32" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="D32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>467</v>
       </c>
       <c r="D33" t="s">
-        <v>504</v>
+        <v>256</v>
       </c>
       <c r="E33" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C34" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="D34" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F34" t="s">
-        <v>522</v>
+        <v>268</v>
       </c>
       <c r="G34" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>409</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>469</v>
       </c>
       <c r="D35" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E35" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>536</v>
       </c>
       <c r="G35" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E36" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G36" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E37" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="G37" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="C38" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E38" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F38" t="s">
-        <v>523</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s">
         <v>395</v>
       </c>
       <c r="C39" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="D39" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F39" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="G39" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C40" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="D40" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E40" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F40" t="s">
-        <v>265</v>
+        <v>525</v>
       </c>
       <c r="G40" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="C41" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F41" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G41" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>407</v>
       </c>
       <c r="C42" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F42" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G42" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>412</v>
       </c>
       <c r="C43" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="D43" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E43" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F43" t="s">
-        <v>524</v>
+        <v>268</v>
       </c>
       <c r="G43" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E44" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F44" t="s">
-        <v>263</v>
+        <v>538</v>
       </c>
       <c r="G44" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E45" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F45" t="s">
-        <v>525</v>
+        <v>268</v>
       </c>
       <c r="G45" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C46" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E46" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F46" t="s">
-        <v>263</v>
+        <v>539</v>
       </c>
       <c r="G46" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>414</v>
       </c>
       <c r="C47" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E47" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F47" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G47" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C48" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E48" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F48" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G48" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C49" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D49" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E49" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F49" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G49" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>463</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E50" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F50" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G50" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>195</v>
+        <v>478</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F51" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G51" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B52" t="s">
-        <v>402</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>464</v>
+        <v>199</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E52" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F52" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G52" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C53" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E53" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F53" t="s">
-        <v>526</v>
+        <v>268</v>
       </c>
       <c r="G53" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C54" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E54" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F54" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="G54" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B55" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C55" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="D55" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E55" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F55" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="G55" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B56" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="C56" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="D56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E56" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F56" t="s">
-        <v>263</v>
+        <v>542</v>
       </c>
       <c r="G56" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B57" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C57" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="D57" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E57" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F57" t="s">
-        <v>528</v>
+        <v>268</v>
       </c>
       <c r="G57" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>420</v>
       </c>
       <c r="C58" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E58" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F58" t="s">
-        <v>263</v>
+        <v>542</v>
       </c>
       <c r="G58" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B59" t="s">
-        <v>408</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>471</v>
+        <v>219</v>
       </c>
       <c r="D59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E59" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F59" t="s">
-        <v>529</v>
+        <v>268</v>
       </c>
       <c r="G59" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>421</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>485</v>
       </c>
       <c r="D60" t="s">
-        <v>505</v>
+        <v>256</v>
       </c>
       <c r="E60" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F60" t="s">
-        <v>265</v>
+        <v>543</v>
       </c>
       <c r="G60" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B61" t="s">
-        <v>409</v>
+        <v>238</v>
       </c>
       <c r="C61" t="s">
-        <v>472</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="E61" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F61" t="s">
-        <v>530</v>
+        <v>269</v>
       </c>
       <c r="G61" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B62" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C62" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D62" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E62" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F62" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="G62" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B63" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C63" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E63" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F63" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="G63" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B64" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C64" t="s">
-        <v>475</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E64" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F64" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="G64" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>488</v>
       </c>
       <c r="D65" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E65" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F65" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="G65" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B66" t="s">
-        <v>413</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>476</v>
+        <v>235</v>
       </c>
       <c r="D66" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E66" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F66" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="G66" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B67" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C67" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="D67" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E67" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F67" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="G67" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>426</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>490</v>
       </c>
       <c r="D68" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E68" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F68" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G68" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>427</v>
       </c>
       <c r="C69" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D69" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E69" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F69" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="G69" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B70" t="s">
-        <v>415</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D70" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E70" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F70" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="G70" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B71" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C71" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D71" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E71" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F71" t="s">
-        <v>263</v>
+        <v>546</v>
       </c>
       <c r="G71" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>429</v>
       </c>
       <c r="C72" t="s">
-        <v>232</v>
+        <v>494</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E72" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F72" t="s">
-        <v>537</v>
+        <v>268</v>
       </c>
       <c r="G72" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B73" t="s">
-        <v>417</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="D73" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E73" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F73" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="G73" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B74" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C74" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="D74" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E74" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F74" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G74" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B75" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C75" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E75" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F75" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="G75" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B76" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C76" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E76" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F76" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="G76" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B77" t="s">
-        <v>421</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E77" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F77" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G77" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B78" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="D78" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E78" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F78" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="G78" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B79" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="C79" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E79" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F79" t="s">
-        <v>263</v>
+        <v>555</v>
       </c>
       <c r="G79" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B80" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C80" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="D80" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E80" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F80" t="s">
-        <v>528</v>
+        <v>268</v>
       </c>
       <c r="G80" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>436</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>503</v>
       </c>
       <c r="D81" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E81" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F81" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G81" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B82" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C82" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="D82" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E82" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F82" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="G82" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B83" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C83" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="D83" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E83" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F83" t="s">
-        <v>263</v>
+        <v>525</v>
       </c>
       <c r="G83" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B84" t="s">
-        <v>427</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="D84" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E84" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F84" t="s">
-        <v>510</v>
+        <v>268</v>
       </c>
       <c r="G84" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B85" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C85" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="D85" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E85" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F85" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="G85" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>492</v>
+        <v>239</v>
       </c>
       <c r="D86" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E86" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F86" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="G86" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B87" t="s">
-        <v>426</v>
+        <v>129</v>
       </c>
       <c r="C87" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E87" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F87" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="G87" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B88" t="s">
-        <v>429</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
-        <v>493</v>
+        <v>207</v>
       </c>
       <c r="D88" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E88" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F88" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="G88" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>440</v>
       </c>
       <c r="C89" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="D89" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E89" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F89" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G89" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B90" t="s">
-        <v>430</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="D90" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E90" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F90" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="G90" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B91" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C91" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D91" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E91" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F91" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G91" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B92" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C92" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D92" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E92" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F92" t="s">
-        <v>263</v>
+        <v>542</v>
       </c>
       <c r="G92" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B93" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C93" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="D93" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E93" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F93" t="s">
-        <v>532</v>
+        <v>268</v>
       </c>
       <c r="G93" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
+        <v>443</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>512</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E94" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F94" t="s">
-        <v>270</v>
+        <v>546</v>
       </c>
       <c r="G94" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B95" t="s">
-        <v>434</v>
+        <v>162</v>
       </c>
       <c r="C95" t="s">
-        <v>498</v>
+        <v>232</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E95" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F95" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="G95" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B96" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C96" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E96" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F96" t="s">
-        <v>546</v>
+        <v>268</v>
       </c>
       <c r="G96" t="s">
-        <v>548</v>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>383</v>
+      </c>
+      <c r="B97" t="s">
+        <v>445</v>
+      </c>
+      <c r="C97" t="s">
+        <v>514</v>
+      </c>
+      <c r="D97" t="s">
+        <v>256</v>
+      </c>
+      <c r="E97" t="s">
+        <v>520</v>
+      </c>
+      <c r="F97" t="s">
+        <v>560</v>
+      </c>
+      <c r="G97" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/BigBasket/Bigbasket_products.xlsx
+++ b/BigBasket/Bigbasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="568">
   <si>
     <t>product_name</t>
   </si>
@@ -41,10 +41,22 @@
     <t>Onion</t>
   </si>
   <si>
+    <t>Potato (Loose)</t>
+  </si>
+  <si>
+    <t>Chilli - Green, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Cucumber - Mangalore, Organically Grown</t>
+  </si>
+  <si>
+    <t>Yam - Cut</t>
+  </si>
+  <si>
     <t>Onion (Loose)</t>
   </si>
   <si>
-    <t>Potato (Loose)</t>
+    <t>Potato</t>
   </si>
   <si>
     <t>Carrot - Orange (Loose)</t>
@@ -59,6 +71,9 @@
     <t>Capsicum - Green (Loose)</t>
   </si>
   <si>
+    <t>Tomato - Hybrid (Loose)</t>
+  </si>
+  <si>
     <t>Coriander Leaves</t>
   </si>
   <si>
@@ -68,9 +83,6 @@
     <t>Ladies' Fingers (Loose)</t>
   </si>
   <si>
-    <t>Tomato - Hybrid (Loose)</t>
-  </si>
-  <si>
     <t>Cauliflower</t>
   </si>
   <si>
@@ -80,12 +92,12 @@
     <t>Palak - Cleaned, without roots</t>
   </si>
   <si>
+    <t>Chilli - Green, Organically Grown</t>
+  </si>
+  <si>
     <t>Mushrooms - Button</t>
   </si>
   <si>
-    <t>Chilli - Green, Organically Grown (Loose)</t>
-  </si>
-  <si>
     <t>Cabbage (Loose)</t>
   </si>
   <si>
@@ -107,162 +119,162 @@
     <t>Curry Leaves</t>
   </si>
   <si>
+    <t>Sweet Corn (Loose)</t>
+  </si>
+  <si>
     <t>Drumstick/Moringa</t>
   </si>
   <si>
-    <t>Sweet Corn (Loose)</t>
-  </si>
-  <si>
     <t>Brinjal - Varikatri (Loose)</t>
   </si>
   <si>
     <t>Methi/Venthaya Keerai - Cleaned, without roots</t>
   </si>
   <si>
+    <t>Mint Leaves - Cleaned, without roots</t>
+  </si>
+  <si>
     <t>Onion - Organically Grown (Loose)</t>
   </si>
   <si>
-    <t>Mint Leaves - Cleaned, without roots</t>
+    <t>Amla (Loose)</t>
   </si>
   <si>
     <t>Brinjal - Bottle Shape (Loose)</t>
   </si>
   <si>
-    <t>Amla (Loose)</t>
+    <t>Chow Chow (Loose)</t>
+  </si>
+  <si>
+    <t>Spring Onion - With roots</t>
+  </si>
+  <si>
+    <t>Betel Leaf</t>
+  </si>
+  <si>
+    <t>Beans - Broad (Loose)</t>
   </si>
   <si>
     <t>Tomato - Local, Organically Grown (Loose)</t>
   </si>
   <si>
-    <t>Chow Chow (Loose)</t>
+    <t>Bitter Gourd (Loose)</t>
   </si>
   <si>
     <t>Parwal (Loose)</t>
   </si>
   <si>
-    <t>Spring Onion - With roots</t>
-  </si>
-  <si>
-    <t>Betel Leaf</t>
-  </si>
-  <si>
-    <t>Beans - Broad (Loose)</t>
-  </si>
-  <si>
-    <t>Bitter Gourd (Loose)</t>
+    <t>Palak - Organically Grown</t>
+  </si>
+  <si>
+    <t>Garlic - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Pumpkin Green - Cut</t>
+  </si>
+  <si>
+    <t>Cucumber - Organically Grown (Loose)</t>
   </si>
   <si>
     <t>Lettuce - Iceberg</t>
   </si>
   <si>
-    <t>Pumpkin Green - Cut</t>
-  </si>
-  <si>
-    <t>Garlic - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Palak - Organically Grown</t>
-  </si>
-  <si>
     <t>Beans - Cowpea (Loose)</t>
   </si>
   <si>
-    <t>Cucumber - Organically Grown (Loose)</t>
+    <t>Sweet Potato (Loose)</t>
+  </si>
+  <si>
+    <t>Corriander  - Organically Grown</t>
   </si>
   <si>
     <t>Sweet Potato - Organically Grown (Loose)</t>
   </si>
   <si>
-    <t>Sweet Potato (Loose)</t>
+    <t>Broccoli</t>
   </si>
   <si>
     <t>Beans - Cluster (Loose)</t>
   </si>
   <si>
-    <t>Broccoli</t>
-  </si>
-  <si>
-    <t>Corriander  - Organically Grown</t>
-  </si>
-  <si>
     <t>Coloured Capsicum Mix</t>
   </si>
   <si>
+    <t>Onion - Sambhar (Loose)</t>
+  </si>
+  <si>
     <t>Colocasia (Loose)</t>
   </si>
   <si>
-    <t>Onion - Sambhar (Loose)</t>
+    <t>Knol Khol (Loose)</t>
+  </si>
+  <si>
+    <t>Radish - White (Loose)</t>
   </si>
   <si>
     <t>Potato - Organically Grown (Loose)</t>
   </si>
   <si>
-    <t>Radish - White (Loose)</t>
-  </si>
-  <si>
-    <t>Knol Khol (Loose)</t>
+    <t>Baby Potato (Loose)</t>
   </si>
   <si>
     <t>Amaranthus - Red Cleaned, without roots</t>
   </si>
   <si>
-    <t>Baby Potato (Loose)</t>
+    <t>Tomato - Cherry</t>
+  </si>
+  <si>
+    <t>Snake Gourd</t>
+  </si>
+  <si>
+    <t>Basale Leaf</t>
   </si>
   <si>
     <t>Ladies' Fingers - Organically Grown (Loose)</t>
   </si>
   <si>
-    <t>Tomato - Cherry</t>
-  </si>
-  <si>
-    <t>Basale Leaf</t>
+    <t>Tomato - Hybrid, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Beetroot - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Mint - Organically Grown</t>
   </si>
   <si>
     <t>Beans - Organically Grown (Loose)</t>
   </si>
   <si>
-    <t>Snake Gourd</t>
-  </si>
-  <si>
-    <t>Mint - Organically Grown</t>
-  </si>
-  <si>
-    <t>Beetroot - Organically Grown (Loose)</t>
+    <t>Capsicum - Green, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Lettuce - Green</t>
   </si>
   <si>
     <t>Ash Gourd - Cut</t>
   </si>
   <si>
-    <t>Capsicum - Green, Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Lettuce - Green</t>
+    <t>Dill Leaves</t>
+  </si>
+  <si>
+    <t>Cauliflower - Organically Grown</t>
+  </si>
+  <si>
+    <t>Drumstick Leaves</t>
   </si>
   <si>
     <t>Brinjal - Green, Long (Loose)</t>
   </si>
   <si>
-    <t>Tomato - Hybrid, Organically Grown (Loose)</t>
-  </si>
-  <si>
     <t>Amaranthus - Green Cleaned, without roots</t>
   </si>
   <si>
-    <t>Drumstick Leaves</t>
-  </si>
-  <si>
-    <t>Cauliflower - Organically Grown</t>
+    <t>Tomato - Green (Loose)</t>
   </si>
   <si>
     <t>Bitter Gourd - Organically Grown (Loose)</t>
   </si>
   <si>
-    <t>Tomato - Green (Loose)</t>
-  </si>
-  <si>
-    <t>Dill Leaves</t>
-  </si>
-  <si>
     <t>Bottle Gourd - Organically Grown (Loose)</t>
   </si>
   <si>
@@ -278,1303 +290,1288 @@
     <t>Celery</t>
   </si>
   <si>
+    <t>Beans - French, Ring (Loose)</t>
+  </si>
+  <si>
+    <t>Banana Stem - Organically Grown (Loose)</t>
+  </si>
+  <si>
     <t>Pumpkin - Disco</t>
   </si>
   <si>
-    <t>Beans - French, Ring (Loose)</t>
+    <t>Groundnut - Fresh (Loose)</t>
   </si>
   <si>
     <t>Baby Corn - Unpeeled (Loose)</t>
   </si>
   <si>
-    <t>Groundnut - Fresh (Loose)</t>
-  </si>
-  <si>
-    <t>Banana Stem - Organically Grown (Loose)</t>
+    <t>Ash Gourd (Loose)</t>
+  </si>
+  <si>
+    <t>Chow Chow - Organically Grown, Rich In Vitamins, Good For Weight Loss</t>
+  </si>
+  <si>
+    <t>Carrot - Ooty (Loose)</t>
+  </si>
+  <si>
+    <t>Cabbage - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Gongura Leaves/Pulicha - Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Bitter Gourd - Forest (Loose)</t>
+  </si>
+  <si>
+    <t>Lemon Grass</t>
+  </si>
+  <si>
+    <t>Ridge Gourd - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Capsicum - Red, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Cut Cauliflower, Washed</t>
   </si>
   <si>
     <t>Potato - Red (Loose)</t>
   </si>
   <si>
-    <t>Ash Gourd (Loose)</t>
-  </si>
-  <si>
-    <t>Gongura Leaves/Pulicha - Cleaned, without roots</t>
-  </si>
-  <si>
-    <t>Cucumber - Mangalore, Organically Grown</t>
-  </si>
-  <si>
-    <t>Carrot - Ooty (Loose)</t>
-  </si>
-  <si>
-    <t>Bitter Gourd - Forest (Loose)</t>
-  </si>
-  <si>
-    <t>Lemon Grass</t>
-  </si>
-  <si>
-    <t>Chow Chow - Organically Grown, Rich In Vitamins, Good For Weight Loss</t>
-  </si>
-  <si>
-    <t>Cabbage - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Yam - Cut</t>
-  </si>
-  <si>
-    <t>Capsicum - Red, Organically Grown (Loose)</t>
-  </si>
-  <si>
     <t>₹585</t>
   </si>
   <si>
+    <t>₹206</t>
+  </si>
+  <si>
+    <t>₹22.24</t>
+  </si>
+  <si>
+    <t>₹43</t>
+  </si>
+  <si>
+    <t>₹150</t>
+  </si>
+  <si>
     <t>₹191</t>
   </si>
   <si>
-    <t>₹206</t>
-  </si>
-  <si>
-    <t>₹27</t>
-  </si>
-  <si>
-    <t>₹70</t>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹29</t>
+  </si>
+  <si>
+    <t>₹61</t>
   </si>
   <si>
     <t>₹28</t>
   </si>
   <si>
-    <t>₹38</t>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹39</t>
+  </si>
+  <si>
+    <t>₹306</t>
+  </si>
+  <si>
+    <t>₹48.63</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹68</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹128</t>
+  </si>
+  <si>
+    <t>₹36</t>
+  </si>
+  <si>
+    <t>₹56.85</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹75.34</t>
+  </si>
+  <si>
+    <t>₹276</t>
+  </si>
+  <si>
+    <t>₹142</t>
+  </si>
+  <si>
+    <t>₹98</t>
+  </si>
+  <si>
+    <t>₹136</t>
+  </si>
+  <si>
+    <t>₹180</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
+    <t>₹17</t>
+  </si>
+  <si>
+    <t>₹26.03</t>
+  </si>
+  <si>
+    <t>₹133</t>
+  </si>
+  <si>
+    <t>₹72</t>
+  </si>
+  <si>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹161</t>
+  </si>
+  <si>
+    <t>₹107</t>
+  </si>
+  <si>
+    <t>₹189.04</t>
+  </si>
+  <si>
+    <t>₹53</t>
+  </si>
+  <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹117</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
+    <t>₹114</t>
+  </si>
+  <si>
+    <t>₹185</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹65</t>
+  </si>
+  <si>
+    <t>₹158</t>
+  </si>
+  <si>
+    <t>₹318</t>
+  </si>
+  <si>
+    <t>₹31</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹55</t>
+  </si>
+  <si>
+    <t>₹106</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹346</t>
+  </si>
+  <si>
+    <t>₹63.01</t>
+  </si>
+  <si>
+    <t>₹223.29</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹87</t>
+  </si>
+  <si>
+    <t>₹40</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹202</t>
+  </si>
+  <si>
+    <t>₹74</t>
+  </si>
+  <si>
+    <t>₹120</t>
+  </si>
+  <si>
+    <t>₹16</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹48</t>
+  </si>
+  <si>
+    <t>₹355</t>
+  </si>
+  <si>
+    <t>₹15.57</t>
+  </si>
+  <si>
+    <t>₹31.39</t>
+  </si>
+  <si>
+    <t>₹109.5</t>
+  </si>
+  <si>
+    <t>₹116</t>
+  </si>
+  <si>
+    <t>₹34</t>
+  </si>
+  <si>
+    <t>₹12</t>
+  </si>
+  <si>
+    <t>₹9.75</t>
+  </si>
+  <si>
+    <t>₹12.5</t>
+  </si>
+  <si>
+    <t>₹14.5</t>
+  </si>
+  <si>
+    <t>₹223.38</t>
+  </si>
+  <si>
+    <t>₹19.5</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹45</t>
+  </si>
+  <si>
+    <t>₹21.17</t>
+  </si>
+  <si>
+    <t>₹28.42</t>
+  </si>
+  <si>
+    <t>₹21</t>
+  </si>
+  <si>
+    <t>₹93.44</t>
+  </si>
+  <si>
+    <t>₹15</t>
+  </si>
+  <si>
+    <t>₹20</t>
+  </si>
+  <si>
+    <t>₹81.03</t>
+  </si>
+  <si>
+    <t>₹201.48</t>
+  </si>
+  <si>
+    <t>₹103.66</t>
+  </si>
+  <si>
+    <t>₹71.54</t>
+  </si>
+  <si>
+    <t>₹78.1</t>
+  </si>
+  <si>
+    <t>₹131.4</t>
+  </si>
+  <si>
+    <t>₹23</t>
+  </si>
+  <si>
+    <t>₹25.55</t>
+  </si>
+  <si>
+    <t>₹12.41</t>
+  </si>
+  <si>
+    <t>₹19</t>
+  </si>
+  <si>
+    <t>₹97.09</t>
+  </si>
+  <si>
+    <t>₹52.56</t>
+  </si>
+  <si>
+    <t>₹43.07</t>
+  </si>
+  <si>
+    <t>₹117.53</t>
+  </si>
+  <si>
+    <t>₹78.11</t>
+  </si>
+  <si>
+    <t>₹138</t>
+  </si>
+  <si>
+    <t>₹38.69</t>
+  </si>
+  <si>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹85.41</t>
+  </si>
+  <si>
+    <t>₹101.47</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹83.22</t>
+  </si>
+  <si>
+    <t>₹129</t>
+  </si>
+  <si>
+    <t>₹65.7</t>
+  </si>
+  <si>
+    <t>₹45.26</t>
+  </si>
+  <si>
+    <t>₹55.48</t>
+  </si>
+  <si>
+    <t>₹47.45</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹115.34</t>
+  </si>
+  <si>
+    <t>₹232.14</t>
+  </si>
+  <si>
+    <t>₹22.63</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹77.38</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹252.58</t>
+  </si>
+  <si>
+    <t>₹163</t>
+  </si>
+  <si>
+    <t>₹36.5</t>
+  </si>
+  <si>
+    <t>₹63.51</t>
+  </si>
+  <si>
+    <t>₹29.2</t>
+  </si>
+  <si>
+    <t>₹42.34</t>
+  </si>
+  <si>
+    <t>₹147.46</t>
+  </si>
+  <si>
+    <t>₹54.02</t>
+  </si>
+  <si>
+    <t>₹87.6</t>
+  </si>
+  <si>
+    <t>₹11.68</t>
+  </si>
+  <si>
+    <t>₹32.12</t>
+  </si>
+  <si>
+    <t>₹35.04</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
+  </si>
+  <si>
+    <t>30% OFF</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>37% OFF</t>
+  </si>
+  <si>
+    <t>59% OFF</t>
+  </si>
+  <si>
+    <t>31% OFF</t>
+  </si>
+  <si>
+    <t>65% OFF</t>
+  </si>
+  <si>
+    <t>62% OFF</t>
+  </si>
+  <si>
+    <t>63% OFF</t>
+  </si>
+  <si>
+    <t>60% OFF</t>
+  </si>
+  <si>
+    <t>67% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>38% OFF</t>
+  </si>
+  <si>
+    <t>28% OFF</t>
+  </si>
+  <si>
+    <t>58% OFF</t>
+  </si>
+  <si>
+    <t>43% OFF</t>
+  </si>
+  <si>
+    <t>34% OFF</t>
+  </si>
+  <si>
+    <t>42% OFF</t>
+  </si>
+  <si>
+    <t>44% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>5 kg</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx 500-1kg)</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>10 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 2.5 to 4 Kg</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>300 g</t>
+  </si>
+  <si>
+    <t>2023-11-09 13:13:38</t>
+  </si>
+  <si>
+    <t>2023-11-10 15:16:06</t>
+  </si>
+  <si>
+    <t>2023-11-15 13:33:03</t>
+  </si>
+  <si>
+    <t>Cut Indian Fruit Pack</t>
+  </si>
+  <si>
+    <t>Watermelon  - Small</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Sweet Mandarin</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Baby Apple Shimla</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Small (Loose)</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Small</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur Premium</t>
+  </si>
+  <si>
+    <t>Raw Mango (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Premium</t>
+  </si>
+  <si>
+    <t>Mango - Raw Totapuri</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Wood Apple - Kothbel (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Regular</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Organically Grown</t>
+  </si>
+  <si>
+    <t>Apple - Kashmir, Regular</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Sugarcane - Diced</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Apple - Green, Premium</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Apple - Kashmir, Premium</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Plum - Indian</t>
+  </si>
+  <si>
+    <t>Apple - Kinnaur, Regular</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Fuji Premium</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Banana - Robusta, Organically Grown</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Premium</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Grape Fruit - Indian (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Sun Melon</t>
+  </si>
+  <si>
+    <t>Kiwi - Dried</t>
+  </si>
+  <si>
+    <t>Apple - Queen, Rose</t>
+  </si>
+  <si>
+    <t>₹169.86</t>
+  </si>
+  <si>
+    <t>₹134</t>
+  </si>
+  <si>
+    <t>₹259</t>
+  </si>
+  <si>
+    <t>₹462</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹144</t>
+  </si>
+  <si>
+    <t>₹42.47</t>
+  </si>
+  <si>
+    <t>₹328</t>
+  </si>
+  <si>
+    <t>₹216</t>
+  </si>
+  <si>
+    <t>₹344</t>
+  </si>
+  <si>
+    <t>₹86.3</t>
   </si>
   <si>
     <t>₹105</t>
   </si>
   <si>
-    <t>₹48.63</t>
-  </si>
-  <si>
-    <t>₹48</t>
-  </si>
-  <si>
-    <t>₹25</t>
-  </si>
-  <si>
-    <t>₹36</t>
-  </si>
-  <si>
-    <t>₹82</t>
-  </si>
-  <si>
-    <t>₹136</t>
-  </si>
-  <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹22.24</t>
-  </si>
-  <si>
-    <t>₹29</t>
-  </si>
-  <si>
-    <t>₹47</t>
-  </si>
-  <si>
-    <t>₹31</t>
-  </si>
-  <si>
-    <t>₹133</t>
-  </si>
-  <si>
-    <t>₹56.85</t>
-  </si>
-  <si>
     <t>₹166</t>
   </si>
   <si>
-    <t>₹221</t>
-  </si>
-  <si>
-    <t>₹75.34</t>
+    <t>₹427</t>
+  </si>
+  <si>
+    <t>₹94</t>
+  </si>
+  <si>
+    <t>₹313</t>
+  </si>
+  <si>
+    <t>₹85</t>
+  </si>
+  <si>
+    <t>₹444</t>
+  </si>
+  <si>
+    <t>₹190</t>
+  </si>
+  <si>
+    <t>₹244</t>
+  </si>
+  <si>
+    <t>₹79</t>
+  </si>
+  <si>
+    <t>₹310</t>
+  </si>
+  <si>
+    <t>₹81</t>
+  </si>
+  <si>
+    <t>₹390</t>
+  </si>
+  <si>
+    <t>₹95</t>
   </si>
   <si>
     <t>₹51</t>
   </si>
   <si>
+    <t>₹538</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹657</t>
+  </si>
+  <si>
+    <t>₹122</t>
+  </si>
+  <si>
+    <t>₹155</t>
+  </si>
+  <si>
+    <t>₹480</t>
+  </si>
+  <si>
+    <t>₹393.15</t>
+  </si>
+  <si>
+    <t>₹137</t>
+  </si>
+  <si>
+    <t>₹109</t>
+  </si>
+  <si>
+    <t>₹418</t>
+  </si>
+  <si>
+    <t>₹88</t>
+  </si>
+  <si>
+    <t>₹560</t>
+  </si>
+  <si>
+    <t>₹222</t>
+  </si>
+  <si>
+    <t>₹168</t>
+  </si>
+  <si>
+    <t>₹305</t>
+  </si>
+  <si>
+    <t>₹481</t>
+  </si>
+  <si>
+    <t>₹517</t>
+  </si>
+  <si>
+    <t>₹225</t>
+  </si>
+  <si>
+    <t>₹240</t>
+  </si>
+  <si>
+    <t>₹39.73</t>
+  </si>
+  <si>
+    <t>₹220</t>
+  </si>
+  <si>
+    <t>₹324.34</t>
+  </si>
+  <si>
+    <t>₹501.36</t>
+  </si>
+  <si>
+    <t>₹210.53</t>
+  </si>
+  <si>
+    <t>₹127</t>
+  </si>
+  <si>
     <t>₹162</t>
   </si>
   <si>
+    <t>₹380</t>
+  </si>
+  <si>
+    <t>₹476</t>
+  </si>
+  <si>
+    <t>₹210</t>
+  </si>
+  <si>
+    <t>₹105.48</t>
+  </si>
+  <si>
+    <t>₹352</t>
+  </si>
+  <si>
+    <t>₹1146</t>
+  </si>
+  <si>
+    <t>₹97.26</t>
+  </si>
+  <si>
     <t>₹143</t>
   </si>
   <si>
-    <t>₹102</t>
-  </si>
-  <si>
-    <t>₹40</t>
-  </si>
-  <si>
-    <t>₹188</t>
-  </si>
-  <si>
-    <t>₹59</t>
-  </si>
-  <si>
-    <t>₹37</t>
-  </si>
-  <si>
-    <t>₹17</t>
-  </si>
-  <si>
-    <t>₹26.03</t>
-  </si>
-  <si>
-    <t>₹122</t>
-  </si>
-  <si>
-    <t>₹68</t>
-  </si>
-  <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹50.68</t>
-  </si>
-  <si>
-    <t>₹189.04</t>
-  </si>
-  <si>
-    <t>₹107</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹92</t>
-  </si>
-  <si>
-    <t>₹83</t>
-  </si>
-  <si>
-    <t>₹93</t>
-  </si>
-  <si>
-    <t>₹81</t>
-  </si>
-  <si>
-    <t>₹153</t>
-  </si>
-  <si>
-    <t>₹357</t>
-  </si>
-  <si>
-    <t>₹22</t>
-  </si>
-  <si>
-    <t>₹88</t>
-  </si>
-  <si>
-    <t>₹58.9</t>
-  </si>
-  <si>
-    <t>₹496</t>
-  </si>
-  <si>
-    <t>₹95</t>
-  </si>
-  <si>
-    <t>₹49</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹73</t>
-  </si>
-  <si>
-    <t>₹223.29</t>
-  </si>
-  <si>
-    <t>₹98</t>
-  </si>
-  <si>
-    <t>₹58</t>
-  </si>
-  <si>
-    <t>₹210</t>
-  </si>
-  <si>
-    <t>₹161</t>
-  </si>
-  <si>
-    <t>₹128</t>
-  </si>
-  <si>
-    <t>₹106</t>
-  </si>
-  <si>
-    <t>₹33</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹43</t>
-  </si>
-  <si>
-    <t>₹120</t>
-  </si>
-  <si>
-    <t>₹16</t>
-  </si>
-  <si>
-    <t>₹45</t>
-  </si>
-  <si>
-    <t>₹150</t>
-  </si>
-  <si>
-    <t>₹69</t>
-  </si>
-  <si>
-    <t>₹355</t>
-  </si>
-  <si>
-    <t>₹108</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹12</t>
-  </si>
-  <si>
-    <t>₹33.5</t>
-  </si>
-  <si>
-    <t>₹13</t>
-  </si>
-  <si>
-    <t>₹20</t>
-  </si>
-  <si>
-    <t>₹73.5</t>
-  </si>
-  <si>
-    <t>₹19.5</t>
-  </si>
-  <si>
-    <t>₹24</t>
-  </si>
-  <si>
-    <t>₹95.2</t>
-  </si>
-  <si>
-    <t>₹15.57</t>
-  </si>
-  <si>
-    <t>₹19</t>
-  </si>
-  <si>
-    <t>₹21</t>
-  </si>
-  <si>
-    <t>₹97.09</t>
-  </si>
-  <si>
-    <t>₹14</t>
+    <t>₹758</t>
+  </si>
+  <si>
+    <t>₹205</t>
+  </si>
+  <si>
+    <t>₹248</t>
+  </si>
+  <si>
+    <t>₹1018</t>
+  </si>
+  <si>
+    <t>₹233</t>
+  </si>
+  <si>
+    <t>₹124</t>
+  </si>
+  <si>
+    <t>₹189.07</t>
+  </si>
+  <si>
+    <t>₹337.26</t>
+  </si>
+  <si>
+    <t>₹26</t>
+  </si>
+  <si>
+    <t>₹239.44</t>
+  </si>
+  <si>
+    <t>₹157.68</t>
+  </si>
+  <si>
+    <t>₹251.12</t>
+  </si>
+  <si>
+    <t>₹41</t>
+  </si>
+  <si>
+    <t>₹63</t>
+  </si>
+  <si>
+    <t>₹76.65</t>
   </si>
   <si>
     <t>₹121.18</t>
   </si>
   <si>
-    <t>₹161.33</t>
-  </si>
-  <si>
-    <t>₹52.74</t>
+    <t>₹311.71</t>
+  </si>
+  <si>
+    <t>₹68.62</t>
+  </si>
+  <si>
+    <t>₹228.49</t>
+  </si>
+  <si>
+    <t>₹62.05</t>
+  </si>
+  <si>
+    <t>₹324.12</t>
+  </si>
+  <si>
+    <t>₹138.7</t>
+  </si>
+  <si>
+    <t>₹178.12</t>
+  </si>
+  <si>
+    <t>₹57.67</t>
+  </si>
+  <si>
+    <t>₹226.3</t>
+  </si>
+  <si>
+    <t>₹59.13</t>
+  </si>
+  <si>
+    <t>₹284</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
   </si>
   <si>
     <t>₹37.23</t>
   </si>
   <si>
-    <t>₹113.4</t>
-  </si>
-  <si>
-    <t>₹81.4</t>
-  </si>
-  <si>
-    <t>₹71.4</t>
-  </si>
-  <si>
-    <t>₹131.6</t>
-  </si>
-  <si>
-    <t>₹41.3</t>
-  </si>
-  <si>
-    <t>₹27.01</t>
-  </si>
-  <si>
-    <t>₹12.41</t>
+    <t>₹392.74</t>
+  </si>
+  <si>
+    <t>₹61.32</t>
+  </si>
+  <si>
+    <t>₹479.61</t>
   </si>
   <si>
     <t>₹89.06</t>
   </si>
   <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹41.61</t>
-  </si>
-  <si>
-    <t>₹138</t>
-  </si>
-  <si>
-    <t>₹78.11</t>
-  </si>
-  <si>
-    <t>₹81.03</t>
-  </si>
-  <si>
-    <t>₹85.4</t>
-  </si>
-  <si>
-    <t>₹67.16</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>₹60.59</t>
-  </si>
-  <si>
-    <t>₹43.07</t>
-  </si>
-  <si>
-    <t>₹65.1</t>
-  </si>
-  <si>
-    <t>₹129</t>
-  </si>
-  <si>
-    <t>₹47.6</t>
-  </si>
-  <si>
-    <t>₹59.13</t>
-  </si>
-  <si>
-    <t>₹111.69</t>
-  </si>
-  <si>
-    <t>₹260.61</t>
-  </si>
-  <si>
-    <t>₹22.63</t>
-  </si>
-  <si>
-    <t>₹8</t>
-  </si>
-  <si>
-    <t>₹61.6</t>
-  </si>
-  <si>
-    <t>₹57.4</t>
-  </si>
-  <si>
-    <t>₹362.08</t>
-  </si>
-  <si>
-    <t>₹69.35</t>
-  </si>
-  <si>
-    <t>₹34.3</t>
-  </si>
-  <si>
-    <t>₹39.42</t>
-  </si>
-  <si>
-    <t>₹26.28</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>₹163</t>
-  </si>
-  <si>
-    <t>₹29.2</t>
-  </si>
-  <si>
-    <t>₹71.54</t>
-  </si>
-  <si>
-    <t>₹42.34</t>
-  </si>
-  <si>
-    <t>₹147</t>
-  </si>
-  <si>
-    <t>₹117.53</t>
-  </si>
-  <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
-    <t>₹77.38</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
-    <t>₹63</t>
-  </si>
-  <si>
-    <t>₹31.39</t>
-  </si>
-  <si>
-    <t>₹50</t>
-  </si>
-  <si>
-    <t>₹87.6</t>
-  </si>
-  <si>
-    <t>₹11.68</t>
-  </si>
-  <si>
-    <t>₹31.5</t>
-  </si>
-  <si>
-    <t>₹109.5</t>
-  </si>
-  <si>
-    <t>₹50.37</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>43% OFF</t>
-  </si>
-  <si>
-    <t>56% OFF</t>
-  </si>
-  <si>
-    <t>52% OFF</t>
-  </si>
-  <si>
-    <t>54% OFF</t>
-  </si>
-  <si>
-    <t>47% OFF</t>
-  </si>
-  <si>
-    <t>30% OFF</t>
-  </si>
-  <si>
-    <t>60% OFF</t>
-  </si>
-  <si>
-    <t>65% OFF</t>
-  </si>
-  <si>
-    <t>48% OFF</t>
-  </si>
-  <si>
-    <t>33% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>34% OFF</t>
-  </si>
-  <si>
-    <t>32% OFF</t>
-  </si>
-  <si>
-    <t>61% OFF</t>
+    <t>₹113.15</t>
+  </si>
+  <si>
+    <t>₹350.4</t>
+  </si>
+  <si>
+    <t>₹105.12</t>
+  </si>
+  <si>
+    <t>₹287</t>
+  </si>
+  <si>
+    <t>₹100.01</t>
+  </si>
+  <si>
+    <t>₹79.57</t>
+  </si>
+  <si>
+    <t>₹305.14</t>
+  </si>
+  <si>
+    <t>₹64.24</t>
+  </si>
+  <si>
+    <t>₹322</t>
+  </si>
+  <si>
+    <t>₹162.06</t>
+  </si>
+  <si>
+    <t>₹122.64</t>
+  </si>
+  <si>
+    <t>₹222.65</t>
+  </si>
+  <si>
+    <t>₹351.13</t>
+  </si>
+  <si>
+    <t>₹377.41</t>
+  </si>
+  <si>
+    <t>₹164.25</t>
+  </si>
+  <si>
+    <t>₹175.2</t>
+  </si>
+  <si>
+    <t>₹160.6</t>
+  </si>
+  <si>
+    <t>₹236.77</t>
+  </si>
+  <si>
+    <t>₹365.99</t>
+  </si>
+  <si>
+    <t>₹148</t>
+  </si>
+  <si>
+    <t>₹92.71</t>
+  </si>
+  <si>
+    <t>₹118.26</t>
+  </si>
+  <si>
+    <t>₹277.4</t>
+  </si>
+  <si>
+    <t>₹347.48</t>
+  </si>
+  <si>
+    <t>₹153.3</t>
+  </si>
+  <si>
+    <t>₹77</t>
+  </si>
+  <si>
+    <t>₹256.96</t>
+  </si>
+  <si>
+    <t>₹836.58</t>
+  </si>
+  <si>
+    <t>₹71</t>
+  </si>
+  <si>
+    <t>₹104.39</t>
+  </si>
+  <si>
+    <t>₹553.34</t>
+  </si>
+  <si>
+    <t>₹149.65</t>
+  </si>
+  <si>
+    <t>₹181.04</t>
+  </si>
+  <si>
+    <t>₹743.14</t>
   </si>
   <si>
     <t>40% OFF</t>
   </si>
   <si>
-    <t>31% OFF</t>
-  </si>
-  <si>
-    <t>64% OFF</t>
-  </si>
-  <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>5 kg - Multipack</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>5 kg</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx. 180g - 200 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 500 g - 800 g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100 g)</t>
-  </si>
-  <si>
-    <t>10 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 250g-500g)</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>350 g (2 pieces)</t>
-  </si>
-  <si>
-    <t>1 Kg</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 400 to 600 g</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 2.5 to 4 Kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx 500-1kg)</t>
-  </si>
-  <si>
-    <t>1 pc (approx. 300-1.3 Kg)</t>
-  </si>
-  <si>
-    <t>2023-11-09 13:13:38</t>
-  </si>
-  <si>
-    <t>2023-11-10 15:16:06</t>
-  </si>
-  <si>
-    <t>Cut Indian Fruit Pack</t>
-  </si>
-  <si>
-    <t>Watermelon  - Small</t>
-  </si>
-  <si>
-    <t>Avocado</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Baby Apple Shimla</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Watermelon -  Medium</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Small (Loose)</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Small</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Avocado (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Raw Mango (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Premium</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur Premium</t>
-  </si>
-  <si>
-    <t>Mango - Raw Totapuri</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Wood Apple - Kothbel (Loose)</t>
-  </si>
-  <si>
-    <t>Passion Fruit</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Organically Grown</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Sweet Mandarin</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Kashmir, Regular</t>
-  </si>
-  <si>
-    <t>Sugarcane - Diced</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Apple - Green, Premium</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Apple - Kashmir, Premium</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Apple - Queen, Rose</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Apple - Fuji Premium</t>
-  </si>
-  <si>
-    <t>Banana - Robusta, Organically Grown</t>
-  </si>
-  <si>
-    <t>Apple - Kinnaur, Regular</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Grape Fruit - Indian (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Premium</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Kiwi - Dried</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>₹169.86</t>
-  </si>
-  <si>
-    <t>₹87</t>
-  </si>
-  <si>
-    <t>₹134</t>
-  </si>
-  <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹328</t>
-  </si>
-  <si>
-    <t>₹207</t>
-  </si>
-  <si>
-    <t>₹373</t>
-  </si>
-  <si>
-    <t>₹495</t>
-  </si>
-  <si>
-    <t>₹199</t>
-  </si>
-  <si>
-    <t>₹86.3</t>
-  </si>
-  <si>
-    <t>₹94</t>
-  </si>
-  <si>
-    <t>₹96</t>
-  </si>
-  <si>
-    <t>₹350</t>
-  </si>
-  <si>
-    <t>₹39</t>
-  </si>
-  <si>
-    <t>₹410</t>
-  </si>
-  <si>
-    <t>₹115</t>
-  </si>
-  <si>
-    <t>₹117</t>
-  </si>
-  <si>
-    <t>₹131</t>
-  </si>
-  <si>
-    <t>₹80</t>
-  </si>
-  <si>
-    <t>₹79</t>
-  </si>
-  <si>
-    <t>₹310</t>
-  </si>
-  <si>
-    <t>₹442</t>
-  </si>
-  <si>
-    <t>₹175</t>
-  </si>
-  <si>
-    <t>₹113</t>
-  </si>
-  <si>
-    <t>₹555</t>
-  </si>
-  <si>
-    <t>₹538</t>
-  </si>
-  <si>
-    <t>₹155</t>
-  </si>
-  <si>
-    <t>₹404.11</t>
-  </si>
-  <si>
-    <t>₹137</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
-    <t>₹440</t>
-  </si>
-  <si>
-    <t>₹517</t>
-  </si>
-  <si>
-    <t>₹181</t>
-  </si>
-  <si>
-    <t>₹312</t>
-  </si>
-  <si>
-    <t>₹212</t>
-  </si>
-  <si>
-    <t>₹846</t>
-  </si>
-  <si>
-    <t>₹258</t>
-  </si>
-  <si>
-    <t>₹259</t>
-  </si>
-  <si>
-    <t>₹474</t>
-  </si>
-  <si>
-    <t>₹168</t>
-  </si>
-  <si>
-    <t>₹34.25</t>
-  </si>
-  <si>
-    <t>₹220</t>
-  </si>
-  <si>
-    <t>₹501.36</t>
-  </si>
-  <si>
-    <t>₹121</t>
-  </si>
-  <si>
-    <t>₹380</t>
-  </si>
-  <si>
-    <t>₹324.34</t>
-  </si>
-  <si>
-    <t>₹476</t>
-  </si>
-  <si>
-    <t>₹116</t>
-  </si>
-  <si>
-    <t>₹91</t>
-  </si>
-  <si>
-    <t>₹66</t>
-  </si>
-  <si>
-    <t>₹101.37</t>
-  </si>
-  <si>
-    <t>₹210.53</t>
-  </si>
-  <si>
-    <t>₹235</t>
-  </si>
-  <si>
-    <t>₹72</t>
-  </si>
-  <si>
-    <t>₹1146</t>
-  </si>
-  <si>
-    <t>₹350.68</t>
-  </si>
-  <si>
-    <t>₹91.78</t>
-  </si>
-  <si>
-    <t>₹758</t>
-  </si>
-  <si>
-    <t>₹205</t>
-  </si>
-  <si>
-    <t>₹194.52</t>
-  </si>
-  <si>
-    <t>₹276</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹124</t>
-  </si>
-  <si>
-    <t>₹63.51</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹89</t>
-  </si>
-  <si>
-    <t>₹239.44</t>
-  </si>
-  <si>
-    <t>₹139</t>
-  </si>
-  <si>
-    <t>₹272.29</t>
-  </si>
-  <si>
-    <t>₹361.35</t>
-  </si>
-  <si>
-    <t>₹130</t>
-  </si>
-  <si>
-    <t>₹68.62</t>
-  </si>
-  <si>
-    <t>₹255.5</t>
-  </si>
-  <si>
-    <t>₹287</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹60</t>
-  </si>
-  <si>
-    <t>₹95.63</t>
-  </si>
-  <si>
-    <t>₹58.4</t>
-  </si>
-  <si>
-    <t>₹85.41</t>
-  </si>
-  <si>
-    <t>₹226.3</t>
-  </si>
-  <si>
-    <t>₹298</t>
-  </si>
-  <si>
-    <t>₹57.67</t>
-  </si>
-  <si>
-    <t>₹122.5</t>
-  </si>
-  <si>
-    <t>₹82.49</t>
-  </si>
-  <si>
-    <t>₹405.15</t>
-  </si>
-  <si>
-    <t>₹392.74</t>
-  </si>
-  <si>
-    <t>₹113.15</t>
-  </si>
-  <si>
-    <t>₹70.08</t>
-  </si>
-  <si>
-    <t>₹322.66</t>
-  </si>
-  <si>
-    <t>₹295</t>
-  </si>
-  <si>
-    <t>₹79.1</t>
-  </si>
-  <si>
-    <t>₹100.01</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
-  </si>
-  <si>
-    <t>₹321.2</t>
-  </si>
-  <si>
-    <t>₹64.24</t>
-  </si>
-  <si>
-    <t>₹377.41</t>
-  </si>
-  <si>
-    <t>₹132.13</t>
-  </si>
-  <si>
-    <t>₹218.4</t>
-  </si>
-  <si>
-    <t>₹148.4</t>
-  </si>
-  <si>
-    <t>₹617.58</t>
-  </si>
-  <si>
-    <t>₹188.34</t>
-  </si>
-  <si>
-    <t>₹189.07</t>
-  </si>
-  <si>
-    <t>₹346.02</t>
-  </si>
-  <si>
-    <t>₹122.64</t>
-  </si>
-  <si>
-    <t>₹118.26</t>
-  </si>
-  <si>
-    <t>₹160.6</t>
-  </si>
-  <si>
-    <t>₹365.99</t>
-  </si>
-  <si>
-    <t>₹88.33</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹277.4</t>
-  </si>
-  <si>
-    <t>₹236.77</t>
-  </si>
-  <si>
-    <t>₹35.04</t>
-  </si>
-  <si>
-    <t>₹347.48</t>
-  </si>
-  <si>
-    <t>₹84.68</t>
-  </si>
-  <si>
-    <t>₹66.43</t>
-  </si>
-  <si>
-    <t>₹153.3</t>
-  </si>
-  <si>
-    <t>₹48.18</t>
-  </si>
-  <si>
-    <t>₹74</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹171.55</t>
-  </si>
-  <si>
-    <t>₹52.56</t>
-  </si>
-  <si>
-    <t>₹836.58</t>
-  </si>
-  <si>
-    <t>₹65.7</t>
-  </si>
-  <si>
-    <t>₹256</t>
-  </si>
-  <si>
-    <t>₹104.39</t>
-  </si>
-  <si>
-    <t>₹67</t>
-  </si>
-  <si>
-    <t>₹553.34</t>
-  </si>
-  <si>
-    <t>₹149.65</t>
-  </si>
-  <si>
-    <t>₹142</t>
-  </si>
-  <si>
-    <t>₹201.48</t>
-  </si>
-  <si>
-    <t>₹337.26</t>
-  </si>
-  <si>
-    <t>42% OFF</t>
-  </si>
-  <si>
-    <t>36% OFF</t>
-  </si>
-  <si>
     <t>35% OFF</t>
   </si>
   <si>
-    <t>28% OFF</t>
-  </si>
-  <si>
-    <t>38% OFF</t>
+    <t>46% OFF</t>
   </si>
   <si>
     <t>Fresh Fruits</t>
@@ -1586,6 +1583,12 @@
     <t>1 pc - 1.7 - 2.5 kg</t>
   </si>
   <si>
+    <t>4 pcs - 520 to 600 g</t>
+  </si>
+  <si>
+    <t>4 pcs - 530g - 640g</t>
+  </si>
+  <si>
     <t>1 kg - (Approx. 6 - 8 pcs)</t>
   </si>
   <si>
@@ -1601,21 +1604,24 @@
     <t>1 kg - (5-6 pcs per kg)</t>
   </si>
   <si>
+    <t>1 pc - 2.5 - 3.8 kg</t>
+  </si>
+  <si>
+    <t>3 pcs</t>
+  </si>
+  <si>
     <t>4 pcs - (Approx.450 g-500 g)</t>
   </si>
   <si>
-    <t>1 pc - 2.5 - 3.8 kg</t>
-  </si>
-  <si>
-    <t>3 pcs</t>
-  </si>
-  <si>
     <t>4 pcs - (Approx. 800 g - 880 g)</t>
   </si>
   <si>
     <t>1 pc - 250 to 350 g</t>
   </si>
   <si>
+    <t>3 kg</t>
+  </si>
+  <si>
     <t>1 pc - 500 g - 800 g</t>
   </si>
   <si>
@@ -1628,76 +1634,76 @@
     <t>2x4 pcs - (Multipack)</t>
   </si>
   <si>
+    <t>1 kg - (approx. 4-5 pcs)</t>
+  </si>
+  <si>
     <t>1 pc - 800 g -1000 g</t>
   </si>
   <si>
-    <t>1 kg - (approx. 4-5 pcs)</t>
-  </si>
-  <si>
     <t>1 pc - (approx. 550g to 650g)</t>
   </si>
   <si>
+    <t>2x4 pcs</t>
+  </si>
+  <si>
+    <t>4 pcs</t>
+  </si>
+  <si>
+    <t>4 pcs - (Approx. 580g - 680g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 400 to 500g)</t>
+  </si>
+  <si>
     <t>6 pcs</t>
   </si>
   <si>
-    <t>1 pc - (Approx. 400 to 500g)</t>
-  </si>
-  <si>
-    <t>4 pcs</t>
-  </si>
-  <si>
-    <t>4 pcs - 520 to 600 g</t>
-  </si>
-  <si>
-    <t>2x4 pcs</t>
-  </si>
-  <si>
-    <t>4 pcs - (Approx. 580g - 680g)</t>
-  </si>
-  <si>
     <t>200 g</t>
   </si>
   <si>
+    <t>4 pcs - (500 - 600g)</t>
+  </si>
+  <si>
+    <t>4 pcs - 900-1 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 250g to 300g)</t>
+  </si>
+  <si>
     <t>1 pc - 400 - 800g</t>
   </si>
   <si>
-    <t>1 pc - (approx. 250g to 300g)</t>
-  </si>
-  <si>
-    <t>4 pcs - (500 - 600g)</t>
-  </si>
-  <si>
-    <t>4 pcs - 900-1 kg</t>
-  </si>
-  <si>
     <t>1 pc - (approx. 300g to 400g)</t>
   </si>
   <si>
     <t>1 pc - (Approx. 200 g -  300 g)</t>
   </si>
   <si>
+    <t>150 g</t>
+  </si>
+  <si>
     <t>4 pcs - Approx. 780 g-880 g</t>
   </si>
   <si>
-    <t>150 g</t>
-  </si>
-  <si>
     <t>80 g</t>
   </si>
   <si>
+    <t>Approx 500 g - 1 Pack</t>
+  </si>
+  <si>
+    <t>4 pcs - 700-900g</t>
+  </si>
+  <si>
     <t>1 pc (approx. 1 -3 kg)</t>
   </si>
   <si>
     <t>225 g</t>
   </si>
   <si>
-    <t>4 pcs - 700-900g</t>
-  </si>
-  <si>
     <t>1 pc - 300gm-500gm</t>
   </si>
   <si>
-    <t>4 pcs - 530g - 640g</t>
+    <t>1 pc - 700 g - 1.5 kg</t>
   </si>
   <si>
     <t>2023-11-08 16:07:31</t>
@@ -1710,6 +1716,9 @@
   </si>
   <si>
     <t>2023-11-10 15:16:39</t>
+  </si>
+  <si>
+    <t>2023-11-15 13:33:38</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2101,22 +2110,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2124,22 +2133,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2147,22 +2156,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2170,22 +2179,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2193,22 +2202,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
         <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2216,22 +2225,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2239,22 +2248,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2262,22 +2271,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2285,22 +2294,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2308,22 +2317,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2331,22 +2340,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2354,22 +2363,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2377,22 +2386,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F14" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G14" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2400,22 +2409,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G15" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2423,22 +2432,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G16" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2446,22 +2455,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G17" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2469,22 +2478,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G18" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2492,22 +2501,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G19" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2515,22 +2524,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2538,22 +2547,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F21" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2564,19 +2573,19 @@
         <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F22" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G22" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2584,22 +2593,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F23" t="s">
         <v>269</v>
       </c>
       <c r="G23" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2607,22 +2616,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F24" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G24" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2630,22 +2639,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2653,22 +2662,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F26" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G26" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2676,22 +2685,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2699,22 +2708,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G28" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2722,22 +2731,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G29" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2745,22 +2754,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G30" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2768,22 +2777,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G31" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2794,19 +2803,19 @@
         <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2817,19 +2826,19 @@
         <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G33" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2840,19 +2849,19 @@
         <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G34" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2860,22 +2869,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F35" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G35" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2883,22 +2892,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D36" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2909,19 +2918,19 @@
         <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D37" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G37" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2932,19 +2941,19 @@
         <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G38" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2955,19 +2964,19 @@
         <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G39" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2978,19 +2987,19 @@
         <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F40" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G40" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3001,19 +3010,19 @@
         <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G41" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3024,19 +3033,19 @@
         <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F42" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3047,19 +3056,19 @@
         <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F43" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G43" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3070,19 +3079,19 @@
         <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D44" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F44" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G44" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3090,22 +3099,22 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E45" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G45" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3113,22 +3122,22 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E46" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G46" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3136,22 +3145,22 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F47" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G47" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3159,22 +3168,22 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F48" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G48" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3182,22 +3191,22 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F49" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G49" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3205,22 +3214,22 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G50" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3231,19 +3240,19 @@
         <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E51" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F51" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G51" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3251,22 +3260,22 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D52" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E52" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F52" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G52" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3274,22 +3283,22 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D53" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E53" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F53" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="G53" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3297,22 +3306,22 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E54" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F54" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G54" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3320,22 +3329,22 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D55" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E55" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F55" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="G55" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3343,22 +3352,22 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F56" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G56" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3366,22 +3375,22 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D57" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F57" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G57" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3389,22 +3398,22 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F58" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G58" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3412,22 +3421,22 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E59" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F59" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G59" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3435,22 +3444,22 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E60" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F60" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G60" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3458,22 +3467,22 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D61" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F61" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G61" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3481,22 +3490,22 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F62" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G62" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3504,22 +3513,22 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D63" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F63" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G63" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3527,22 +3536,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D64" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F64" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G64" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3550,22 +3559,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E65" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F65" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G65" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3573,22 +3582,22 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G66" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3596,22 +3605,22 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E67" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F67" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G67" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3619,22 +3628,22 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D68" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E68" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F68" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G68" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3642,22 +3651,22 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E69" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F69" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G69" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3665,22 +3674,22 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D70" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F70" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G70" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3688,22 +3697,22 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D71" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E71" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F71" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G71" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3711,22 +3720,22 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D72" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E72" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F72" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G72" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3734,22 +3743,22 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F73" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G73" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3757,22 +3766,22 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D74" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E74" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F74" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G74" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3780,22 +3789,22 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F75" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G75" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3803,22 +3812,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="C76" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D76" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G76" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3826,22 +3835,22 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D77" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F77" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G77" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3849,22 +3858,22 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E78" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F78" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="G78" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3872,22 +3881,22 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D79" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E79" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F79" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G79" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3895,22 +3904,22 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D80" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F80" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G80" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3918,22 +3927,22 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D81" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E81" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F81" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="G81" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3941,22 +3950,22 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F82" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G82" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3964,22 +3973,22 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E83" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F83" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G83" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3987,22 +3996,22 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="D84" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E84" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F84" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="G84" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4010,22 +4019,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E85" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F85" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G85" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4033,22 +4042,22 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="C86" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="D86" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E86" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F86" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G86" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4056,22 +4065,22 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D87" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E87" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F87" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="G87" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4079,22 +4088,22 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D88" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F88" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G88" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4102,22 +4111,22 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="D89" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E89" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F89" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G89" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4125,22 +4134,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C90" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D90" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F90" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="G90" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4148,22 +4157,22 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D91" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E91" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F91" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G91" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4171,22 +4180,22 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="C92" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E92" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F92" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G92" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4194,22 +4203,22 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E93" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F93" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G93" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4217,22 +4226,22 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="D94" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E94" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F94" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="G94" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4240,22 +4249,22 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D95" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E95" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F95" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="G95" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4266,19 +4275,19 @@
         <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F96" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G96" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4289,19 +4298,111 @@
         <v>172</v>
       </c>
       <c r="C97" t="s">
+        <v>242</v>
+      </c>
+      <c r="D97" t="s">
+        <v>247</v>
+      </c>
+      <c r="E97" t="s">
+        <v>264</v>
+      </c>
+      <c r="F97" t="s">
+        <v>280</v>
+      </c>
+      <c r="G97" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" t="s">
+        <v>247</v>
+      </c>
+      <c r="E98" t="s">
+        <v>264</v>
+      </c>
+      <c r="F98" t="s">
+        <v>271</v>
+      </c>
+      <c r="G98" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" t="s">
         <v>243</v>
       </c>
-      <c r="D97" t="s">
-        <v>256</v>
-      </c>
-      <c r="E97" t="s">
-        <v>263</v>
-      </c>
-      <c r="F97" t="s">
-        <v>282</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="D99" t="s">
+        <v>247</v>
+      </c>
+      <c r="E99" t="s">
+        <v>264</v>
+      </c>
+      <c r="F99" t="s">
+        <v>284</v>
+      </c>
+      <c r="G99" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" t="s">
+        <v>247</v>
+      </c>
+      <c r="E100" t="s">
+        <v>264</v>
+      </c>
+      <c r="F100" t="s">
         <v>287</v>
+      </c>
+      <c r="G100" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101" t="s">
+        <v>247</v>
+      </c>
+      <c r="E101" t="s">
+        <v>264</v>
+      </c>
+      <c r="F101" t="s">
+        <v>271</v>
+      </c>
+      <c r="G101" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4311,7 +4412,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4342,2210 +4443,2256 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F2" t="s">
         <v>520</v>
       </c>
-      <c r="F2" t="s">
-        <v>521</v>
-      </c>
       <c r="G2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>411</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>516</v>
       </c>
       <c r="E4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F4" t="s">
         <v>267</v>
       </c>
       <c r="G4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>455</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D6" t="s">
         <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>523</v>
       </c>
       <c r="G6" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>393</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>515</v>
+        <v>246</v>
       </c>
       <c r="E7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>524</v>
       </c>
       <c r="G7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>425</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F8" t="s">
-        <v>524</v>
+        <v>271</v>
       </c>
       <c r="G8" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
         <v>256</v>
       </c>
       <c r="E9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F9" t="s">
-        <v>525</v>
+        <v>269</v>
       </c>
       <c r="G9" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>517</v>
       </c>
       <c r="E10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G10" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C11" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G11" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>397</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>459</v>
       </c>
       <c r="D12" t="s">
-        <v>516</v>
+        <v>247</v>
       </c>
       <c r="E12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F12" t="s">
-        <v>282</v>
+        <v>527</v>
       </c>
       <c r="G12" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F13" t="s">
-        <v>268</v>
+        <v>528</v>
       </c>
       <c r="G13" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F14" t="s">
-        <v>528</v>
+        <v>284</v>
       </c>
       <c r="G14" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>462</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F15" t="s">
         <v>529</v>
       </c>
       <c r="G15" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C16" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D16" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F16" t="s">
-        <v>268</v>
+        <v>530</v>
       </c>
       <c r="G16" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>464</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G17" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
-        <v>396</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>456</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F18" t="s">
-        <v>531</v>
+        <v>271</v>
       </c>
       <c r="G18" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G19" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B20" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C20" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="D20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F20" t="s">
-        <v>525</v>
+        <v>271</v>
       </c>
       <c r="G20" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C21" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F21" t="s">
         <v>532</v>
       </c>
       <c r="G21" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C22" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D22" t="s">
-        <v>518</v>
+        <v>247</v>
       </c>
       <c r="E22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F22" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="G22" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>406</v>
       </c>
       <c r="C23" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D23" t="s">
-        <v>518</v>
+        <v>247</v>
       </c>
       <c r="E23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F23" t="s">
-        <v>268</v>
+        <v>526</v>
       </c>
       <c r="G23" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B24" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C24" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D24" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F24" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G24" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B25" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C25" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F25" t="s">
-        <v>282</v>
+        <v>534</v>
       </c>
       <c r="G25" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B26" t="s">
-        <v>403</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>519</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F26" t="s">
-        <v>533</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C27" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>535</v>
       </c>
       <c r="G27" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C28" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="D28" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F28" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G28" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B29" t="s">
-        <v>405</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>464</v>
+        <v>220</v>
       </c>
       <c r="D29" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F29" t="s">
-        <v>525</v>
+        <v>271</v>
       </c>
       <c r="G29" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C30" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D30" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="G30" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>475</v>
       </c>
       <c r="D31" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F31" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G31" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C32" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C33" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G33" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C34" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="D34" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>537</v>
       </c>
       <c r="G34" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s">
-        <v>409</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>469</v>
+        <v>200</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F35" t="s">
-        <v>536</v>
+        <v>271</v>
       </c>
       <c r="G35" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>415</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
+        <v>478</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>538</v>
       </c>
       <c r="G36" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>416</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>479</v>
       </c>
       <c r="D37" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F37" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G37" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C38" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G38" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="C39" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E39" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F39" t="s">
-        <v>537</v>
+        <v>276</v>
       </c>
       <c r="G39" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s">
-        <v>405</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>472</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E40" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F40" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="G40" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C41" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D41" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G41" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C42" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F42" t="s">
-        <v>268</v>
+        <v>540</v>
       </c>
       <c r="G42" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C43" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F43" t="s">
-        <v>268</v>
+        <v>526</v>
       </c>
       <c r="G43" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>394</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>484</v>
       </c>
       <c r="D44" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F44" t="s">
-        <v>538</v>
+        <v>271</v>
       </c>
       <c r="G44" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>421</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>485</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G45" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C46" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D46" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F46" t="s">
-        <v>539</v>
+        <v>271</v>
       </c>
       <c r="G46" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s">
-        <v>414</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
-        <v>477</v>
+        <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E47" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F47" t="s">
-        <v>268</v>
+        <v>541</v>
       </c>
       <c r="G47" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="C48" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E48" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G48" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="C49" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F49" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G49" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E50" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F50" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="G50" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>425</v>
       </c>
       <c r="C51" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E51" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F51" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G51" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>426</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>490</v>
       </c>
       <c r="D52" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E52" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F52" t="s">
-        <v>282</v>
+        <v>542</v>
       </c>
       <c r="G52" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s">
-        <v>415</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>479</v>
+        <v>222</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E53" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F53" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G53" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B54" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="C54" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="D54" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E54" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F54" t="s">
-        <v>540</v>
+        <v>271</v>
       </c>
       <c r="G54" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C55" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D55" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F55" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G55" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C56" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E56" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F56" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G56" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B57" t="s">
-        <v>419</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>483</v>
+        <v>200</v>
       </c>
       <c r="D57" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E57" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F57" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G57" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B58" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C58" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D58" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F58" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G58" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>430</v>
       </c>
       <c r="C59" t="s">
-        <v>219</v>
+        <v>494</v>
       </c>
       <c r="D59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E59" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F59" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G59" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B60" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C60" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E60" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F60" t="s">
-        <v>543</v>
+        <v>271</v>
       </c>
       <c r="G60" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s">
-        <v>238</v>
+        <v>431</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>495</v>
       </c>
       <c r="D61" t="s">
-        <v>515</v>
+        <v>247</v>
       </c>
       <c r="E61" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F61" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G61" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B62" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C62" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F62" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G62" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B63" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C63" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D63" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E63" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F63" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G63" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E64" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F64" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G64" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>435</v>
       </c>
       <c r="C65" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E65" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F65" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G65" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B66" t="s">
         <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E66" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F66" t="s">
-        <v>548</v>
+        <v>269</v>
       </c>
       <c r="G66" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s">
-        <v>425</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>489</v>
+        <v>189</v>
       </c>
       <c r="D67" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F67" t="s">
         <v>549</v>
       </c>
       <c r="G67" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B68" t="s">
-        <v>426</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>490</v>
+        <v>188</v>
       </c>
       <c r="D68" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F68" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="G68" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B69" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C69" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D69" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E69" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F69" t="s">
-        <v>546</v>
+        <v>271</v>
       </c>
       <c r="G69" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>437</v>
       </c>
       <c r="C70" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E70" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F70" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="G70" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B71" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C71" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D71" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E71" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F71" t="s">
-        <v>546</v>
+        <v>271</v>
       </c>
       <c r="G71" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B72" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C72" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D72" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E72" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F72" t="s">
-        <v>268</v>
+        <v>547</v>
       </c>
       <c r="G72" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>440</v>
       </c>
       <c r="C73" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D73" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E73" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F73" t="s">
         <v>551</v>
       </c>
       <c r="G73" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B74" t="s">
-        <v>430</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>496</v>
+        <v>214</v>
       </c>
       <c r="D74" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E74" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F74" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="G74" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B75" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C75" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E75" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F75" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G75" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B76" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C76" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D76" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E76" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F76" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="G76" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="C77" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D77" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E77" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F77" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G77" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B78" t="s">
-        <v>433</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>500</v>
+        <v>198</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E78" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F78" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G78" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B79" t="s">
         <v>434</v>
       </c>
       <c r="C79" t="s">
-        <v>501</v>
+        <v>114</v>
       </c>
       <c r="D79" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E79" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F79" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G79" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B80" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C80" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D80" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F80" t="s">
-        <v>268</v>
+        <v>555</v>
       </c>
       <c r="G80" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B81" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C81" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D81" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E81" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F81" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="G81" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B82" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C82" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E82" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F82" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G82" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B83" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C83" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D83" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E83" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F83" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G83" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C84" t="s">
-        <v>506</v>
+        <v>209</v>
       </c>
       <c r="D84" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E84" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F84" t="s">
-        <v>268</v>
+        <v>556</v>
       </c>
       <c r="G84" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B85" t="s">
-        <v>439</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
-        <v>507</v>
+        <v>236</v>
       </c>
       <c r="D85" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E85" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F85" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="G85" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>446</v>
       </c>
       <c r="C86" t="s">
-        <v>239</v>
+        <v>509</v>
       </c>
       <c r="D86" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E86" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F86" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="G86" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B87" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C87" t="s">
-        <v>508</v>
+        <v>241</v>
       </c>
       <c r="D87" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E87" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F87" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G87" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>447</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
+        <v>510</v>
       </c>
       <c r="D88" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E88" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F88" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="G88" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B89" t="s">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>509</v>
+        <v>231</v>
       </c>
       <c r="D89" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E89" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F89" t="s">
-        <v>546</v>
+        <v>271</v>
       </c>
       <c r="G89" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>448</v>
       </c>
       <c r="C90" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D90" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E90" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F90" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G90" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B91" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C91" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D91" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E91" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F91" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G91" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B92" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C92" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F92" t="s">
-        <v>542</v>
+        <v>271</v>
       </c>
       <c r="G92" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B93" t="s">
-        <v>412</v>
+        <v>133</v>
       </c>
       <c r="C93" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E93" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F93" t="s">
-        <v>268</v>
+        <v>561</v>
       </c>
       <c r="G93" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B94" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C94" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D94" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E94" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F94" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G94" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E95" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F95" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G95" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B96" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C96" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E96" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F96" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G96" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B97" t="s">
-        <v>445</v>
+        <v>113</v>
       </c>
       <c r="C97" t="s">
-        <v>514</v>
+        <v>216</v>
       </c>
       <c r="D97" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E97" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F97" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G97" t="s">
-        <v>564</v>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>387</v>
+      </c>
+      <c r="B98" t="s">
+        <v>452</v>
+      </c>
+      <c r="C98" t="s">
+        <v>515</v>
+      </c>
+      <c r="D98" t="s">
+        <v>247</v>
+      </c>
+      <c r="E98" t="s">
+        <v>519</v>
+      </c>
+      <c r="F98" t="s">
+        <v>271</v>
+      </c>
+      <c r="G98" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>388</v>
+      </c>
+      <c r="B99" t="s">
+        <v>453</v>
+      </c>
+      <c r="C99" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" t="s">
+        <v>247</v>
+      </c>
+      <c r="E99" t="s">
+        <v>519</v>
+      </c>
+      <c r="F99" t="s">
+        <v>543</v>
+      </c>
+      <c r="G99" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
